--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM10_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1302 +397,1423 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>28.94410468982075</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1.13987042374744</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>12.13126816677337</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>7.164770970314637</v>
+      </c>
+      <c r="F2">
         <v>9.518776221467448</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>24.21701840804218</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>1.090115697076738</v>
       </c>
-      <c r="H2" t="n">
-        <v>77.04115360692792</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>84.20592457724256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>25.20272932533501</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2.605418111422721</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>5.998978763789031</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>5.137005601357666</v>
+      </c>
+      <c r="F3">
         <v>11.37067821007979</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>19.46275712548175</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>0.9447669374665059</v>
       </c>
-      <c r="H3" t="n">
-        <v>65.58532847357483</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>70.72233407493249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>26.91138894061196</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2.523998795440761</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>10.53154049642963</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>5.54255867514906</v>
+      </c>
+      <c r="F4">
         <v>9.444700141922951</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>20.94846377628188</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>1.162790076881854</v>
       </c>
-      <c r="H4" t="n">
-        <v>71.52288222756904</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>77.06544090271809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>24.81975389432466</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1.75051529361214</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>8.265259630109334</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>5.677743033079526</v>
+      </c>
+      <c r="F5">
         <v>7.963178551033079</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>19.90846912072179</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>1.308138836492085</v>
       </c>
-      <c r="H5" t="n">
-        <v>64.01531532629309</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>69.69305835937261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>25.6593538776935</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1.99477324155802</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>12.66451072355462</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>5.677743033079526</v>
+      </c>
+      <c r="F6">
         <v>9.666928380556435</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>17.53133847944158</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>1.235464456686969</v>
       </c>
-      <c r="H6" t="n">
-        <v>68.75236915949114</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>74.43011219257066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>26.44003456398384</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1.87264426758508</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>12.53120008435931</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>4.731452527566271</v>
+      </c>
+      <c r="F7">
         <v>10.00027073850666</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>20.35418111596182</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>1.526161975907433</v>
       </c>
-      <c r="H7" t="n">
-        <v>72.72449274630414</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>77.45594527387041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>28.04558540937338</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1.95406358356704</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>12.79782136274993</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>4.055530737913946</v>
+      </c>
+      <c r="F8">
         <v>10.1113848578234</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>11.58851187624104</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>1.671510735517665</v>
       </c>
-      <c r="H8" t="n">
-        <v>66.16887782527246</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>70.2244085631864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>32.81804847273314</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1.66909597763018</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>15.06410222907023</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>5.677743033079526</v>
+      </c>
+      <c r="F9">
         <v>9.629890340784188</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>11.58851187624104</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>1.308138836492085</v>
       </c>
-      <c r="H9" t="n">
-        <v>72.07778773295087</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>77.75553076603039</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>37.16334663227365</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1.58767666164822</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>10.39822985723432</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>9.598089413063006</v>
+      </c>
+      <c r="F10">
         <v>6.518694999915452</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>6.388538598440575</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>2.10755701434836</v>
       </c>
-      <c r="H10" t="n">
-        <v>64.16404376386058</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>73.76213317692358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>37.45794311766623</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1.54696700365724</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>9.198434104476517</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>9.598089413063006</v>
+      </c>
+      <c r="F11">
         <v>5.296439687431303</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>1.33713598572012</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.87209255766139</v>
       </c>
-      <c r="H11" t="n">
-        <v>55.7090124566128</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>65.3071018696758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>28.14869417926079</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.7327738438376401</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>6.532221320570278</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>8.786983265480217</v>
+      </c>
+      <c r="F12">
         <v>3.592689857907947</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>2.67427197144024</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.2180231394153475</v>
       </c>
-      <c r="H12" t="n">
-        <v>41.89867431243226</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>50.68565757791247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>23.03744515769957</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1.09916076575646</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>4.399251093445291</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>9.868458128923937</v>
+      </c>
+      <c r="F13">
         <v>2.185244346562566</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>2.525701306360227</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>0.2180231394153475</v>
       </c>
-      <c r="H13" t="n">
-        <v>33.46482580923946</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>43.33328393816339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>16.85091896445544</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.6106448698647001</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>3.732697897468731</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>7.435139686175567</v>
+      </c>
+      <c r="F14">
         <v>1.963016107929084</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>1.33713598572012</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.1453487596102317</v>
       </c>
-      <c r="H14" t="n">
-        <v>24.63976258504831</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>32.07490227122388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>11.84277871278162</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.7327738438376401</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>1.866348948734365</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>3.785162022053016</v>
+      </c>
+      <c r="F15">
         <v>1.074103153395159</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>2.822842636520253</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.1453487596102317</v>
       </c>
-      <c r="H15" t="n">
-        <v>18.48419605487927</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>22.26935807693229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>7.055585825152233</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.8549028178105801</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>1.599727670343742</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>1.622212295165578</v>
+      </c>
+      <c r="F16">
         <v>0.9629890340784187</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>1.78284798096016</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.1453487596102317</v>
       </c>
-      <c r="H16" t="n">
-        <v>12.40140208795536</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>14.02361438312094</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>5.199627967178995</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1.34341871370234</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.1333106391953119</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>0.8111061475827891</v>
+      </c>
+      <c r="F17">
         <v>1.518559630662122</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>2.377130641280214</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>10.57204759201898</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>11.38315373960177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>3.03434379954355</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.9770317917835201</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.1333106391953119</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>0.5407374317218595</v>
+      </c>
+      <c r="F18">
         <v>1.1852172727119</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>2.2285599762002</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18">
         <v>0.07267437980511587</v>
       </c>
-      <c r="H18" t="n">
-        <v>7.631137859239597</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>8.171875290961458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>2.327312234601361</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>1.38412837169332</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>1.066485113562495</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.1351843579304649</v>
+      </c>
+      <c r="F19">
         <v>0.7777988352171844</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>2.971413301600267</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>8.527137856674628</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>8.662322214605091</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>2.88704555684726</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.7327738438376401</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.7998638351718708</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>1.216659221374184</v>
+      </c>
+      <c r="F20">
         <v>0.9629890340784187</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>2.525701306360227</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>0.07267437980511587</v>
       </c>
-      <c r="H20" t="n">
-        <v>7.981047956100533</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>9.197707177474717</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>4.256919213922745</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.2035482899549</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>1.733038309539053</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>0.6759217896523243</v>
+      </c>
+      <c r="F21">
         <v>1.77782590906785</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>4.308549287320387</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.07267437980511587</v>
       </c>
-      <c r="H21" t="n">
-        <v>12.35255538961005</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>13.02847717926238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>11.28304539053572</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.4070965799098</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>3.466076619078107</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>4.866636885496734</v>
+      </c>
+      <c r="F22">
         <v>3.814918096541428</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>6.6856799286006</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.1453487596102317</v>
       </c>
-      <c r="H22" t="n">
-        <v>25.80216537427589</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>30.66880225977262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>18.5153891069235</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.89561247580156</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>6.932153238156213</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>11.89622349788091</v>
+      </c>
+      <c r="F23">
         <v>6.740923238548931</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>8.9142399048008</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.9447669374665059</v>
       </c>
-      <c r="H23" t="n">
-        <v>42.94308490169751</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>54.83930839957842</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>31.12411868172583</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.89561247580156</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>11.3314043316015</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>15.0054637302816</v>
+      </c>
+      <c r="F24">
         <v>8.481711107844534</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>16.93705581912152</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>1.889533874933012</v>
       </c>
-      <c r="H24" t="n">
-        <v>70.65943629102794</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>85.66490002130955</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>35.79347297519817</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.8141931598195999</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>10.39822985723432</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>8.381430191688821</v>
+      </c>
+      <c r="F25">
         <v>7.037227556726908</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>9.805663895280883</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>1.017441317271622</v>
       </c>
-      <c r="H25" t="n">
-        <v>64.8662287615315</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>73.24765895322032</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>28.94410468982075</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1.13987042374744</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>12.13126816677337</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>7.164770970314637</v>
+      </c>
+      <c r="F26">
         <v>9.518776221467448</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>24.21701840804218</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>1.090115697076738</v>
       </c>
-      <c r="H26" t="n">
-        <v>77.04115360692792</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>84.20592457724256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>24.8934030156728</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>2.2390311895039</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>10.93147241401557</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>5.54255867514906</v>
+      </c>
+      <c r="F27">
         <v>11.14844997144631</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>21.83988776676196</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>1.598836355712548</v>
       </c>
-      <c r="H27" t="n">
-        <v>72.65108071311309</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>78.19363938826214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>26.2190871999394</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>2.07619255753998</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>10.39822985723432</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>7.840692759966965</v>
+      </c>
+      <c r="F28">
         <v>9.185433863517225</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>25.40558372868228</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>1.671510735517665</v>
       </c>
-      <c r="H28" t="n">
-        <v>74.95603794243088</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>82.79673070239784</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>26.13070825432164</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1.91335392557606</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>8.798502186890582</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>5.272189959288131</v>
+      </c>
+      <c r="F29">
         <v>8.407635028300041</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>19.01704513024171</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>1.017441317271622</v>
       </c>
-      <c r="H29" t="n">
-        <v>65.28468584260165</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>70.55687580188977</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>27.6478801540934</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1.99477324155802</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>8.531880908499959</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>6.218480464801384</v>
+      </c>
+      <c r="F30">
         <v>10.48176525554586</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>15.74849049848141</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>1.526161975907433</v>
       </c>
-      <c r="H30" t="n">
-        <v>65.93095203408609</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>72.14943249888746</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>26.66098192802828</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1.58767666164822</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>12.13126816677337</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>5.677743033079526</v>
+      </c>
+      <c r="F31">
         <v>9.926194658962164</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>15.00563717308134</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>1.74418511532278</v>
       </c>
-      <c r="H31" t="n">
-        <v>67.05594370381615</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>72.73368673689568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>28.23707312487857</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1.8319346095941</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>11.99795752757806</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>5.948111748940456</v>
+      </c>
+      <c r="F32">
         <v>9.666928380556435</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>14.85706650800133</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>1.017441317271622</v>
       </c>
-      <c r="H32" t="n">
-        <v>67.60840146788011</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>73.55651321682058</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>32.81804847273314</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1.66909597763018</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>15.06410222907023</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>5.677743033079526</v>
+      </c>
+      <c r="F33">
         <v>9.629890340784188</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>11.58851187624104</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>1.308138836492085</v>
       </c>
-      <c r="H33" t="n">
-        <v>72.07778773295087</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>77.75553076603039</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>37.16334663227365</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1.58767666164822</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>10.39822985723432</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>9.598089413063006</v>
+      </c>
+      <c r="F34">
         <v>6.518694999915452</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>6.388538598440575</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>2.10755701434836</v>
       </c>
-      <c r="H34" t="n">
-        <v>64.16404376386058</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>73.76213317692358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>37.45794311766623</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>1.54696700365724</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>9.198434104476517</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>9.598089413063006</v>
+      </c>
+      <c r="F35">
         <v>5.296439687431303</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>1.33713598572012</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.87209255766139</v>
       </c>
-      <c r="H35" t="n">
-        <v>55.7090124566128</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>65.3071018696758</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>28.14869417926079</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.7327738438376401</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>6.532221320570278</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>8.786983265480217</v>
+      </c>
+      <c r="F36">
         <v>3.592689857907947</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>2.67427197144024</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.2180231394153475</v>
       </c>
-      <c r="H36" t="n">
-        <v>41.89867431243226</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>50.68565757791247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>23.03744515769957</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>1.09916076575646</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>4.399251093445291</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>9.868458128923937</v>
+      </c>
+      <c r="F37">
         <v>2.185244346562566</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>2.525701306360227</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.2180231394153475</v>
       </c>
-      <c r="H37" t="n">
-        <v>33.46482580923946</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>43.33328393816339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>16.85091896445544</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.6106448698647001</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>3.732697897468731</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>7.435139686175567</v>
+      </c>
+      <c r="F38">
         <v>1.963016107929084</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>1.33713598572012</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.1453487596102317</v>
       </c>
-      <c r="H38" t="n">
-        <v>24.63976258504831</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>32.07490227122388</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>11.84277871278162</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.7327738438376401</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>1.866348948734365</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>3.785162022053016</v>
+      </c>
+      <c r="F39">
         <v>1.074103153395159</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>2.822842636520253</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.1453487596102317</v>
       </c>
-      <c r="H39" t="n">
-        <v>18.48419605487927</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>22.26935807693229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>7.055585825152233</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.8549028178105801</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>1.599727670343742</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>1.622212295165578</v>
+      </c>
+      <c r="F40">
         <v>0.9629890340784187</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>1.78284798096016</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>0.1453487596102317</v>
       </c>
-      <c r="H40" t="n">
-        <v>12.40140208795536</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>14.02361438312094</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>5.199627967178995</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>1.34341871370234</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.1333106391953119</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>0.8111061475827891</v>
+      </c>
+      <c r="F41">
         <v>1.518559630662122</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>2.377130641280214</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>10.57204759201898</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>11.38315373960177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>3.03434379954355</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.9770317917835201</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.1333106391953119</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>0.5407374317218595</v>
+      </c>
+      <c r="F42">
         <v>1.1852172727119</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>2.2285599762002</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42">
         <v>0.07267437980511587</v>
       </c>
-      <c r="H42" t="n">
-        <v>7.631137859239597</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>8.171875290961458</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>2.327312234601361</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>1.38412837169332</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>1.066485113562495</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.1351843579304649</v>
+      </c>
+      <c r="F43">
         <v>0.7777988352171844</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>2.971413301600267</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>8.527137856674628</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>8.662322214605091</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>2.88704555684726</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.7327738438376401</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.7998638351718708</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>1.216659221374184</v>
+      </c>
+      <c r="F44">
         <v>0.9629890340784187</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>2.525701306360227</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44">
         <v>0.07267437980511587</v>
       </c>
-      <c r="H44" t="n">
-        <v>7.981047956100533</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>9.197707177474717</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>4.256919213922745</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.2035482899549</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>1.733038309539053</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>0.6759217896523243</v>
+      </c>
+      <c r="F45">
         <v>1.77782590906785</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>4.308549287320387</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.07267437980511587</v>
       </c>
-      <c r="H45" t="n">
-        <v>12.35255538961005</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>13.02847717926238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>11.28304539053572</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.4070965799098</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>3.466076619078107</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>4.866636885496734</v>
+      </c>
+      <c r="F46">
         <v>3.814918096541428</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>6.6856799286006</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.1453487596102317</v>
       </c>
-      <c r="H46" t="n">
-        <v>25.80216537427589</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>30.66880225977262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>18.5153891069235</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.89561247580156</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>6.932153238156213</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>11.89622349788091</v>
+      </c>
+      <c r="F47">
         <v>6.740923238548931</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>8.9142399048008</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.9447669374665059</v>
       </c>
-      <c r="H47" t="n">
-        <v>42.94308490169751</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>54.83930839957842</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>31.12411868172583</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.89561247580156</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>11.3314043316015</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>15.0054637302816</v>
+      </c>
+      <c r="F48">
         <v>8.481711107844534</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>16.93705581912152</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>1.889533874933012</v>
       </c>
-      <c r="H48" t="n">
-        <v>70.65943629102794</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>85.66490002130955</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>35.79347297519817</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.8141931598195999</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>10.39822985723432</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>8.381430191688821</v>
+      </c>
+      <c r="F49">
         <v>7.037227556726908</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>9.805663895280883</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>1.017441317271622</v>
       </c>
-      <c r="H49" t="n">
-        <v>64.8662287615315</v>
+      <c r="I49">
+        <v>73.24765895322032</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>28.94410468982075</v>
+        <v>89.03338666944863</v>
       </c>
       <c r="C2">
-        <v>1.13987042374744</v>
+        <v>3.506293432744027</v>
       </c>
       <c r="D2">
-        <v>12.13126816677337</v>
+        <v>37.31633439893407</v>
       </c>
       <c r="E2">
-        <v>7.164770970314637</v>
+        <v>22.03916241438989</v>
       </c>
       <c r="F2">
-        <v>9.518776221467448</v>
+        <v>29.28018997401964</v>
       </c>
       <c r="G2">
-        <v>24.21701840804218</v>
+        <v>74.49265358215258</v>
       </c>
       <c r="H2">
-        <v>1.090115697076738</v>
+        <v>3.353245623327304</v>
       </c>
       <c r="I2">
-        <v>84.20592457724256</v>
+        <v>259.0212660950162</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>25.20272932533501</v>
+        <v>77.52474533914838</v>
       </c>
       <c r="C3">
-        <v>2.605418111422721</v>
+        <v>8.014384989129203</v>
       </c>
       <c r="D3">
-        <v>5.998978763789031</v>
+        <v>18.45313239507728</v>
       </c>
       <c r="E3">
-        <v>5.137005601357666</v>
+        <v>15.80166361786445</v>
       </c>
       <c r="F3">
-        <v>11.37067821007979</v>
+        <v>34.97672498842035</v>
       </c>
       <c r="G3">
-        <v>19.46275712548175</v>
+        <v>59.86832895252751</v>
       </c>
       <c r="H3">
-        <v>0.9447669374665059</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="I3">
-        <v>70.72233407493249</v>
+        <v>217.5451264890509</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>26.91138894061196</v>
+        <v>82.78066027739574</v>
       </c>
       <c r="C4">
-        <v>2.523998795440761</v>
+        <v>7.763935458218915</v>
       </c>
       <c r="D4">
-        <v>10.53154049642963</v>
+        <v>32.39549909358013</v>
       </c>
       <c r="E4">
-        <v>5.54255867514906</v>
+        <v>17.04916337716954</v>
       </c>
       <c r="F4">
-        <v>9.444700141922951</v>
+        <v>29.05232857344361</v>
       </c>
       <c r="G4">
-        <v>20.94846377628188</v>
+        <v>64.43843039928535</v>
       </c>
       <c r="H4">
-        <v>1.162790076881854</v>
+        <v>3.576795331549124</v>
       </c>
       <c r="I4">
-        <v>77.06544090271809</v>
+        <v>237.0568125106424</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>24.81975389432466</v>
+        <v>76.34669543919638</v>
       </c>
       <c r="C5">
-        <v>1.75051529361214</v>
+        <v>5.384664914571183</v>
       </c>
       <c r="D5">
-        <v>8.265259630109334</v>
+        <v>25.4243157443287</v>
       </c>
       <c r="E5">
-        <v>5.677743033079526</v>
+        <v>17.46499663027124</v>
       </c>
       <c r="F5">
-        <v>7.963178551033079</v>
+        <v>24.49510056192304</v>
       </c>
       <c r="G5">
-        <v>19.90846912072179</v>
+        <v>61.23935938655483</v>
       </c>
       <c r="H5">
-        <v>1.308138836492085</v>
+        <v>4.023894747992765</v>
       </c>
       <c r="I5">
-        <v>69.69305835937261</v>
+        <v>214.3790274248381</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>25.6593538776935</v>
+        <v>78.92934329678346</v>
       </c>
       <c r="C6">
-        <v>1.99477324155802</v>
+        <v>6.136013507302046</v>
       </c>
       <c r="D6">
-        <v>12.66451072355462</v>
+        <v>38.95661283405206</v>
       </c>
       <c r="E6">
-        <v>5.677743033079526</v>
+        <v>17.46499663027124</v>
       </c>
       <c r="F6">
-        <v>9.666928380556435</v>
+        <v>29.73591277517169</v>
       </c>
       <c r="G6">
-        <v>17.53133847944158</v>
+        <v>53.92719707174231</v>
       </c>
       <c r="H6">
-        <v>1.235464456686969</v>
+        <v>3.800345039770944</v>
       </c>
       <c r="I6">
-        <v>74.43011219257066</v>
+        <v>228.9504211550937</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>26.44003456398384</v>
+        <v>81.33075270822404</v>
       </c>
       <c r="C7">
-        <v>1.87264426758508</v>
+        <v>5.760339210936616</v>
       </c>
       <c r="D7">
-        <v>12.53120008435931</v>
+        <v>38.54654322527257</v>
       </c>
       <c r="E7">
-        <v>4.731452527566271</v>
+        <v>14.55416385855936</v>
       </c>
       <c r="F7">
-        <v>10.00027073850666</v>
+        <v>30.76128907776382</v>
       </c>
       <c r="G7">
-        <v>20.35418111596182</v>
+        <v>62.61038982058221</v>
       </c>
       <c r="H7">
-        <v>1.526161975907433</v>
+        <v>4.694543872658226</v>
       </c>
       <c r="I7">
-        <v>77.45594527387041</v>
+        <v>238.2580217739968</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>28.04558540937338</v>
+        <v>86.26950036571512</v>
       </c>
       <c r="C8">
-        <v>1.95406358356704</v>
+        <v>6.010788741846902</v>
       </c>
       <c r="D8">
-        <v>12.79782136274993</v>
+        <v>39.36668244283154</v>
       </c>
       <c r="E8">
-        <v>4.055530737913946</v>
+        <v>12.47499759305088</v>
       </c>
       <c r="F8">
-        <v>10.1113848578234</v>
+        <v>31.10308117862786</v>
       </c>
       <c r="G8">
-        <v>11.58851187624104</v>
+        <v>35.64679128471104</v>
       </c>
       <c r="H8">
-        <v>1.671510735517665</v>
+        <v>5.141643289101865</v>
       </c>
       <c r="I8">
-        <v>70.2244085631864</v>
+        <v>216.0134848958852</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>32.81804847273314</v>
+        <v>100.9498145035784</v>
       </c>
       <c r="C9">
-        <v>1.66909597763018</v>
+        <v>5.134215383660896</v>
       </c>
       <c r="D9">
-        <v>15.06410222907023</v>
+        <v>46.33786579208296</v>
       </c>
       <c r="E9">
-        <v>5.677743033079526</v>
+        <v>17.46499663027124</v>
       </c>
       <c r="F9">
-        <v>9.629890340784188</v>
+        <v>29.62198207488368</v>
       </c>
       <c r="G9">
-        <v>11.58851187624104</v>
+        <v>35.64679128471104</v>
       </c>
       <c r="H9">
-        <v>1.308138836492085</v>
+        <v>4.023894747992765</v>
       </c>
       <c r="I9">
-        <v>77.75553076603039</v>
+        <v>239.179560417181</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>37.16334663227365</v>
+        <v>114.3161499068798</v>
       </c>
       <c r="C10">
-        <v>1.58767666164822</v>
+        <v>4.883765852750609</v>
       </c>
       <c r="D10">
-        <v>10.39822985723432</v>
+        <v>31.98542948480064</v>
       </c>
       <c r="E10">
-        <v>9.598089413063006</v>
+        <v>29.52416097022043</v>
       </c>
       <c r="F10">
-        <v>6.518694999915452</v>
+        <v>20.05180325069049</v>
       </c>
       <c r="G10">
-        <v>6.388538598440575</v>
+        <v>19.65143622105864</v>
       </c>
       <c r="H10">
-        <v>2.10755701434836</v>
+        <v>6.482941538432788</v>
       </c>
       <c r="I10">
-        <v>73.76213317692358</v>
+        <v>226.8956872248334</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>37.45794311766623</v>
+        <v>115.2223421376122</v>
       </c>
       <c r="C11">
-        <v>1.54696700365724</v>
+        <v>4.758541087295464</v>
       </c>
       <c r="D11">
-        <v>9.198434104476517</v>
+        <v>28.29480300578518</v>
       </c>
       <c r="E11">
-        <v>9.598089413063006</v>
+        <v>29.52416097022043</v>
       </c>
       <c r="F11">
-        <v>5.296439687431303</v>
+        <v>16.29209014118603</v>
       </c>
       <c r="G11">
-        <v>1.33713598572012</v>
+        <v>4.113091302082044</v>
       </c>
       <c r="H11">
-        <v>0.87209255766139</v>
+        <v>2.682596498661843</v>
       </c>
       <c r="I11">
-        <v>65.3071018696758</v>
+        <v>200.8876251428432</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>28.14869417926079</v>
+        <v>86.5866676464714</v>
       </c>
       <c r="C12">
-        <v>0.7327738438376401</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="D12">
-        <v>6.532221320570278</v>
+        <v>20.09341083019527</v>
       </c>
       <c r="E12">
-        <v>8.786983265480217</v>
+        <v>27.02916145161024</v>
       </c>
       <c r="F12">
-        <v>3.592689857907947</v>
+        <v>11.05127792793737</v>
       </c>
       <c r="G12">
-        <v>2.67427197144024</v>
+        <v>8.226182604164087</v>
       </c>
       <c r="H12">
-        <v>0.2180231394153475</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I12">
-        <v>50.68565757791247</v>
+        <v>155.9113953632364</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>23.03744515769957</v>
+        <v>70.86423244326599</v>
       </c>
       <c r="C13">
-        <v>1.09916076575646</v>
+        <v>3.381068667288883</v>
       </c>
       <c r="D13">
-        <v>4.399251093445291</v>
+        <v>13.53229708972335</v>
       </c>
       <c r="E13">
-        <v>9.868458128923937</v>
+        <v>30.35582747642382</v>
       </c>
       <c r="F13">
-        <v>2.185244346562566</v>
+        <v>6.721911316992835</v>
       </c>
       <c r="G13">
-        <v>2.525701306360227</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="H13">
-        <v>0.2180231394153475</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I13">
-        <v>43.33328393816339</v>
+        <v>133.2951585778486</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>16.85091896445544</v>
+        <v>51.83419559788761</v>
       </c>
       <c r="C14">
-        <v>0.6106448698647001</v>
+        <v>1.878371481827158</v>
       </c>
       <c r="D14">
-        <v>3.732697897468731</v>
+        <v>11.48194904582587</v>
       </c>
       <c r="E14">
-        <v>7.435139686175567</v>
+        <v>22.87082892059329</v>
       </c>
       <c r="F14">
-        <v>1.963016107929084</v>
+        <v>6.03832711526475</v>
       </c>
       <c r="G14">
-        <v>1.33713598572012</v>
+        <v>4.113091302082044</v>
       </c>
       <c r="H14">
-        <v>0.1453487596102317</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I14">
-        <v>32.07490227122388</v>
+        <v>98.66386287992435</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>11.84277871278162</v>
+        <v>36.42892767543853</v>
       </c>
       <c r="C15">
-        <v>0.7327738438376401</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="D15">
-        <v>1.866348948734365</v>
+        <v>5.740974522912933</v>
       </c>
       <c r="E15">
-        <v>3.785162022053016</v>
+        <v>11.64333108684749</v>
       </c>
       <c r="F15">
-        <v>1.074103153395159</v>
+        <v>3.30399030835241</v>
       </c>
       <c r="G15">
-        <v>2.822842636520253</v>
+        <v>8.683192748839868</v>
       </c>
       <c r="H15">
-        <v>0.1453487596102317</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I15">
-        <v>22.26935807693229</v>
+        <v>68.50156153702746</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>7.055585825152233</v>
+        <v>21.70330392603861</v>
       </c>
       <c r="C16">
-        <v>0.8549028178105801</v>
+        <v>2.62972007455802</v>
       </c>
       <c r="D16">
-        <v>1.599727670343742</v>
+        <v>4.920835305353942</v>
       </c>
       <c r="E16">
-        <v>1.622212295165578</v>
+        <v>4.989999037220354</v>
       </c>
       <c r="F16">
-        <v>0.9629890340784187</v>
+        <v>2.962198207488368</v>
       </c>
       <c r="G16">
-        <v>1.78284798096016</v>
+        <v>5.484121736109391</v>
       </c>
       <c r="H16">
-        <v>0.1453487596102317</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I16">
-        <v>14.02361438312094</v>
+        <v>43.13727770321233</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>5.199627967178995</v>
+        <v>15.99429287242512</v>
       </c>
       <c r="C17">
-        <v>1.34341871370234</v>
+        <v>4.132417260019746</v>
       </c>
       <c r="D17">
-        <v>0.1333106391953119</v>
+        <v>0.4100696087794953</v>
       </c>
       <c r="E17">
-        <v>0.8111061475827891</v>
+        <v>2.494999518610177</v>
       </c>
       <c r="F17">
-        <v>1.518559630662122</v>
+        <v>4.671158711808581</v>
       </c>
       <c r="G17">
-        <v>2.377130641280214</v>
+        <v>7.312162314812519</v>
       </c>
       <c r="I17">
-        <v>11.38315373960177</v>
+        <v>35.01510028645563</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>3.03434379954355</v>
+        <v>9.333779976542708</v>
       </c>
       <c r="C18">
-        <v>0.9770317917835201</v>
+        <v>3.005394370923451</v>
       </c>
       <c r="D18">
-        <v>0.1333106391953119</v>
+        <v>0.4100696087794953</v>
       </c>
       <c r="E18">
-        <v>0.5407374317218595</v>
+        <v>1.663333012406784</v>
       </c>
       <c r="F18">
-        <v>1.1852172727119</v>
+        <v>3.645782409216454</v>
       </c>
       <c r="G18">
-        <v>2.2285599762002</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="H18">
-        <v>0.07267437980511587</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I18">
-        <v>8.171875290961458</v>
+        <v>25.13706125622745</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>2.327312234601361</v>
+        <v>7.158918622785179</v>
       </c>
       <c r="C19">
-        <v>1.38412837169332</v>
+        <v>4.257642025474889</v>
       </c>
       <c r="D19">
-        <v>1.066485113562495</v>
+        <v>3.280556870235962</v>
       </c>
       <c r="E19">
-        <v>0.1351843579304649</v>
+        <v>0.4158332531016961</v>
       </c>
       <c r="F19">
-        <v>0.7777988352171844</v>
+        <v>2.392544706048298</v>
       </c>
       <c r="G19">
-        <v>2.971413301600267</v>
+        <v>9.140202893515649</v>
       </c>
       <c r="I19">
-        <v>8.662322214605091</v>
+        <v>26.64569837116167</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>2.88704555684726</v>
+        <v>8.880683861176552</v>
       </c>
       <c r="C20">
-        <v>0.7327738438376401</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="D20">
-        <v>0.7998638351718708</v>
+        <v>2.460417652676971</v>
       </c>
       <c r="E20">
-        <v>1.216659221374184</v>
+        <v>3.742499277915265</v>
       </c>
       <c r="F20">
-        <v>0.9629890340784187</v>
+        <v>2.962198207488368</v>
       </c>
       <c r="G20">
-        <v>2.525701306360227</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="H20">
-        <v>0.07267437980511587</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I20">
-        <v>9.197707177474717</v>
+        <v>28.29256694515987</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>4.256919213922745</v>
+        <v>13.09447773408175</v>
       </c>
       <c r="C21">
-        <v>0.2035482899549</v>
+        <v>0.626123827275719</v>
       </c>
       <c r="D21">
-        <v>1.733038309539053</v>
+        <v>5.330904914133439</v>
       </c>
       <c r="E21">
-        <v>0.6759217896523243</v>
+        <v>2.079166265508481</v>
       </c>
       <c r="F21">
-        <v>1.77782590906785</v>
+        <v>5.46867361382468</v>
       </c>
       <c r="G21">
-        <v>4.308549287320387</v>
+        <v>13.25329419559769</v>
       </c>
       <c r="H21">
-        <v>0.07267437980511587</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I21">
-        <v>13.02847717926238</v>
+        <v>40.07619025864358</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>11.28304539053572</v>
+        <v>34.70716243704715</v>
       </c>
       <c r="C22">
-        <v>0.4070965799098</v>
+        <v>1.252247654551438</v>
       </c>
       <c r="D22">
-        <v>3.466076619078107</v>
+        <v>10.66180982826688</v>
       </c>
       <c r="E22">
-        <v>4.866636885496734</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="F22">
-        <v>3.814918096541428</v>
+        <v>11.73486212966546</v>
       </c>
       <c r="G22">
-        <v>6.6856799286006</v>
+        <v>20.56545651041021</v>
       </c>
       <c r="H22">
-        <v>0.1453487596102317</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I22">
-        <v>30.66880225977262</v>
+        <v>94.33863508804583</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>18.5153891069235</v>
+        <v>56.95418170152513</v>
       </c>
       <c r="C23">
-        <v>0.89561247580156</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="D23">
-        <v>6.932153238156213</v>
+        <v>21.32361965653375</v>
       </c>
       <c r="E23">
-        <v>11.89622349788091</v>
+        <v>36.59332627294925</v>
       </c>
       <c r="F23">
-        <v>6.740923238548931</v>
+        <v>20.73538745241857</v>
       </c>
       <c r="G23">
-        <v>8.9142399048008</v>
+        <v>27.42060868054695</v>
       </c>
       <c r="H23">
-        <v>0.9447669374665059</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="I23">
-        <v>54.83930839957842</v>
+        <v>168.6882148108705</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>31.12411868172583</v>
+        <v>95.73920917686769</v>
       </c>
       <c r="C24">
-        <v>0.89561247580156</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="D24">
-        <v>11.3314043316015</v>
+        <v>34.85591674625709</v>
       </c>
       <c r="E24">
-        <v>15.0054637302816</v>
+        <v>46.15749109428828</v>
       </c>
       <c r="F24">
-        <v>8.481711107844534</v>
+        <v>26.09013036595524</v>
       </c>
       <c r="G24">
-        <v>16.93705581912152</v>
+        <v>52.0991564930392</v>
       </c>
       <c r="H24">
-        <v>1.889533874933012</v>
+        <v>5.812292413767326</v>
       </c>
       <c r="I24">
-        <v>85.66490002130955</v>
+        <v>263.509141130188</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>35.79347297519817</v>
+        <v>110.1023560339746</v>
       </c>
       <c r="C25">
-        <v>0.8141931598195999</v>
+        <v>2.504495309102876</v>
       </c>
       <c r="D25">
-        <v>10.39822985723432</v>
+        <v>31.98542948480064</v>
       </c>
       <c r="E25">
-        <v>8.381430191688821</v>
+        <v>25.78166169230516</v>
       </c>
       <c r="F25">
-        <v>7.037227556726908</v>
+        <v>21.64683305472269</v>
       </c>
       <c r="G25">
-        <v>9.805663895280883</v>
+        <v>30.16266954860166</v>
       </c>
       <c r="H25">
-        <v>1.017441317271622</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="I25">
-        <v>73.24765895322032</v>
+        <v>225.3131410386131</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>28.94410468982075</v>
+        <v>89.03338666944863</v>
       </c>
       <c r="C26">
-        <v>1.13987042374744</v>
+        <v>3.506293432744027</v>
       </c>
       <c r="D26">
-        <v>12.13126816677337</v>
+        <v>37.31633439893407</v>
       </c>
       <c r="E26">
-        <v>7.164770970314637</v>
+        <v>22.03916241438989</v>
       </c>
       <c r="F26">
-        <v>9.518776221467448</v>
+        <v>29.28018997401964</v>
       </c>
       <c r="G26">
-        <v>24.21701840804218</v>
+        <v>74.49265358215258</v>
       </c>
       <c r="H26">
-        <v>1.090115697076738</v>
+        <v>3.353245623327304</v>
       </c>
       <c r="I26">
-        <v>84.20592457724256</v>
+        <v>259.0212660950162</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>24.8934030156728</v>
+        <v>76.57324349687943</v>
       </c>
       <c r="C27">
-        <v>2.2390311895039</v>
+        <v>6.887362100032909</v>
       </c>
       <c r="D27">
-        <v>10.93147241401557</v>
+        <v>33.62570791991861</v>
       </c>
       <c r="E27">
-        <v>5.54255867514906</v>
+        <v>17.04916337716954</v>
       </c>
       <c r="F27">
-        <v>11.14844997144631</v>
+        <v>34.29314078669226</v>
       </c>
       <c r="G27">
-        <v>21.83988776676196</v>
+        <v>67.18049126734003</v>
       </c>
       <c r="H27">
-        <v>1.598836355712548</v>
+        <v>4.918093580880046</v>
       </c>
       <c r="I27">
-        <v>78.19363938826214</v>
+        <v>240.5272025289128</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>26.2190871999394</v>
+        <v>80.65110853517483</v>
       </c>
       <c r="C28">
-        <v>2.07619255753998</v>
+        <v>6.386463038212333</v>
       </c>
       <c r="D28">
-        <v>10.39822985723432</v>
+        <v>31.98542948480064</v>
       </c>
       <c r="E28">
-        <v>7.840692759966965</v>
+        <v>24.11832867989837</v>
       </c>
       <c r="F28">
-        <v>9.185433863517225</v>
+        <v>28.2548136714275</v>
       </c>
       <c r="G28">
-        <v>25.40558372868228</v>
+        <v>78.14873473955878</v>
       </c>
       <c r="H28">
-        <v>1.671510735517665</v>
+        <v>5.141643289101865</v>
       </c>
       <c r="I28">
-        <v>82.79673070239784</v>
+        <v>254.6865214381743</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>26.13070825432164</v>
+        <v>80.37925086595513</v>
       </c>
       <c r="C29">
-        <v>1.91335392557606</v>
+        <v>5.885563976391759</v>
       </c>
       <c r="D29">
-        <v>8.798502186890582</v>
+        <v>27.06459417944669</v>
       </c>
       <c r="E29">
-        <v>5.272189959288131</v>
+        <v>16.21749687096614</v>
       </c>
       <c r="F29">
-        <v>8.407635028300041</v>
+        <v>25.86226896537922</v>
       </c>
       <c r="G29">
-        <v>19.01704513024171</v>
+        <v>58.49729851850015</v>
       </c>
       <c r="H29">
-        <v>1.017441317271622</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="I29">
-        <v>70.55687580188977</v>
+        <v>217.0361692917446</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>27.6478801540934</v>
+        <v>85.04614085422645</v>
       </c>
       <c r="C30">
-        <v>1.99477324155802</v>
+        <v>6.136013507302046</v>
       </c>
       <c r="D30">
-        <v>8.531880908499959</v>
+        <v>26.2444549618877</v>
       </c>
       <c r="E30">
-        <v>6.218480464801384</v>
+        <v>19.12832964267803</v>
       </c>
       <c r="F30">
-        <v>10.48176525554586</v>
+        <v>32.24238818150801</v>
       </c>
       <c r="G30">
-        <v>15.74849049848141</v>
+        <v>48.44307533563295</v>
       </c>
       <c r="H30">
-        <v>1.526161975907433</v>
+        <v>4.694543872658226</v>
       </c>
       <c r="I30">
-        <v>72.14943249888746</v>
+        <v>221.9349463558934</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>26.66098192802828</v>
+        <v>82.01039688127325</v>
       </c>
       <c r="C31">
-        <v>1.58767666164822</v>
+        <v>4.883765852750609</v>
       </c>
       <c r="D31">
-        <v>12.13126816677337</v>
+        <v>37.31633439893407</v>
       </c>
       <c r="E31">
-        <v>5.677743033079526</v>
+        <v>17.46499663027124</v>
       </c>
       <c r="F31">
-        <v>9.926194658962164</v>
+        <v>30.5334276771878</v>
       </c>
       <c r="G31">
-        <v>15.00563717308134</v>
+        <v>46.15802461225403</v>
       </c>
       <c r="H31">
-        <v>1.74418511532278</v>
+        <v>5.365192997323686</v>
       </c>
       <c r="I31">
-        <v>72.73368673689568</v>
+        <v>223.7321390499947</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>28.23707312487857</v>
+        <v>86.85852531569107</v>
       </c>
       <c r="C32">
-        <v>1.8319346095941</v>
+        <v>5.63511444548147</v>
       </c>
       <c r="D32">
-        <v>11.99795752757806</v>
+        <v>36.90626479015456</v>
       </c>
       <c r="E32">
-        <v>5.948111748940456</v>
+        <v>18.29666313647462</v>
       </c>
       <c r="F32">
-        <v>9.666928380556435</v>
+        <v>29.73591277517169</v>
       </c>
       <c r="G32">
-        <v>14.85706650800133</v>
+        <v>45.70101446757823</v>
       </c>
       <c r="H32">
-        <v>1.017441317271622</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="I32">
-        <v>73.55651321682058</v>
+        <v>226.2631908456571</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>32.81804847273314</v>
+        <v>100.9498145035784</v>
       </c>
       <c r="C33">
-        <v>1.66909597763018</v>
+        <v>5.134215383660896</v>
       </c>
       <c r="D33">
-        <v>15.06410222907023</v>
+        <v>46.33786579208296</v>
       </c>
       <c r="E33">
-        <v>5.677743033079526</v>
+        <v>17.46499663027124</v>
       </c>
       <c r="F33">
-        <v>9.629890340784188</v>
+        <v>29.62198207488368</v>
       </c>
       <c r="G33">
-        <v>11.58851187624104</v>
+        <v>35.64679128471104</v>
       </c>
       <c r="H33">
-        <v>1.308138836492085</v>
+        <v>4.023894747992765</v>
       </c>
       <c r="I33">
-        <v>77.75553076603039</v>
+        <v>239.179560417181</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>37.16334663227365</v>
+        <v>114.3161499068798</v>
       </c>
       <c r="C34">
-        <v>1.58767666164822</v>
+        <v>4.883765852750609</v>
       </c>
       <c r="D34">
-        <v>10.39822985723432</v>
+        <v>31.98542948480064</v>
       </c>
       <c r="E34">
-        <v>9.598089413063006</v>
+        <v>29.52416097022043</v>
       </c>
       <c r="F34">
-        <v>6.518694999915452</v>
+        <v>20.05180325069049</v>
       </c>
       <c r="G34">
-        <v>6.388538598440575</v>
+        <v>19.65143622105864</v>
       </c>
       <c r="H34">
-        <v>2.10755701434836</v>
+        <v>6.482941538432788</v>
       </c>
       <c r="I34">
-        <v>73.76213317692358</v>
+        <v>226.8956872248334</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>37.45794311766623</v>
+        <v>115.2223421376122</v>
       </c>
       <c r="C35">
-        <v>1.54696700365724</v>
+        <v>4.758541087295464</v>
       </c>
       <c r="D35">
-        <v>9.198434104476517</v>
+        <v>28.29480300578518</v>
       </c>
       <c r="E35">
-        <v>9.598089413063006</v>
+        <v>29.52416097022043</v>
       </c>
       <c r="F35">
-        <v>5.296439687431303</v>
+        <v>16.29209014118603</v>
       </c>
       <c r="G35">
-        <v>1.33713598572012</v>
+        <v>4.113091302082044</v>
       </c>
       <c r="H35">
-        <v>0.87209255766139</v>
+        <v>2.682596498661843</v>
       </c>
       <c r="I35">
-        <v>65.3071018696758</v>
+        <v>200.8876251428432</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>28.14869417926079</v>
+        <v>86.5866676464714</v>
       </c>
       <c r="C36">
-        <v>0.7327738438376401</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="D36">
-        <v>6.532221320570278</v>
+        <v>20.09341083019527</v>
       </c>
       <c r="E36">
-        <v>8.786983265480217</v>
+        <v>27.02916145161024</v>
       </c>
       <c r="F36">
-        <v>3.592689857907947</v>
+        <v>11.05127792793737</v>
       </c>
       <c r="G36">
-        <v>2.67427197144024</v>
+        <v>8.226182604164087</v>
       </c>
       <c r="H36">
-        <v>0.2180231394153475</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I36">
-        <v>50.68565757791247</v>
+        <v>155.9113953632364</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>23.03744515769957</v>
+        <v>70.86423244326599</v>
       </c>
       <c r="C37">
-        <v>1.09916076575646</v>
+        <v>3.381068667288883</v>
       </c>
       <c r="D37">
-        <v>4.399251093445291</v>
+        <v>13.53229708972335</v>
       </c>
       <c r="E37">
-        <v>9.868458128923937</v>
+        <v>30.35582747642382</v>
       </c>
       <c r="F37">
-        <v>2.185244346562566</v>
+        <v>6.721911316992835</v>
       </c>
       <c r="G37">
-        <v>2.525701306360227</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="H37">
-        <v>0.2180231394153475</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I37">
-        <v>43.33328393816339</v>
+        <v>133.2951585778486</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>16.85091896445544</v>
+        <v>51.83419559788761</v>
       </c>
       <c r="C38">
-        <v>0.6106448698647001</v>
+        <v>1.878371481827158</v>
       </c>
       <c r="D38">
-        <v>3.732697897468731</v>
+        <v>11.48194904582587</v>
       </c>
       <c r="E38">
-        <v>7.435139686175567</v>
+        <v>22.87082892059329</v>
       </c>
       <c r="F38">
-        <v>1.963016107929084</v>
+        <v>6.03832711526475</v>
       </c>
       <c r="G38">
-        <v>1.33713598572012</v>
+        <v>4.113091302082044</v>
       </c>
       <c r="H38">
-        <v>0.1453487596102317</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I38">
-        <v>32.07490227122388</v>
+        <v>98.66386287992435</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>11.84277871278162</v>
+        <v>36.42892767543853</v>
       </c>
       <c r="C39">
-        <v>0.7327738438376401</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="D39">
-        <v>1.866348948734365</v>
+        <v>5.740974522912933</v>
       </c>
       <c r="E39">
-        <v>3.785162022053016</v>
+        <v>11.64333108684749</v>
       </c>
       <c r="F39">
-        <v>1.074103153395159</v>
+        <v>3.30399030835241</v>
       </c>
       <c r="G39">
-        <v>2.822842636520253</v>
+        <v>8.683192748839868</v>
       </c>
       <c r="H39">
-        <v>0.1453487596102317</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I39">
-        <v>22.26935807693229</v>
+        <v>68.50156153702746</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>7.055585825152233</v>
+        <v>21.70330392603861</v>
       </c>
       <c r="C40">
-        <v>0.8549028178105801</v>
+        <v>2.62972007455802</v>
       </c>
       <c r="D40">
-        <v>1.599727670343742</v>
+        <v>4.920835305353942</v>
       </c>
       <c r="E40">
-        <v>1.622212295165578</v>
+        <v>4.989999037220354</v>
       </c>
       <c r="F40">
-        <v>0.9629890340784187</v>
+        <v>2.962198207488368</v>
       </c>
       <c r="G40">
-        <v>1.78284798096016</v>
+        <v>5.484121736109391</v>
       </c>
       <c r="H40">
-        <v>0.1453487596102317</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I40">
-        <v>14.02361438312094</v>
+        <v>43.13727770321233</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,25 +1563,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>5.199627967178995</v>
+        <v>15.99429287242512</v>
       </c>
       <c r="C41">
-        <v>1.34341871370234</v>
+        <v>4.132417260019746</v>
       </c>
       <c r="D41">
-        <v>0.1333106391953119</v>
+        <v>0.4100696087794953</v>
       </c>
       <c r="E41">
-        <v>0.8111061475827891</v>
+        <v>2.494999518610177</v>
       </c>
       <c r="F41">
-        <v>1.518559630662122</v>
+        <v>4.671158711808581</v>
       </c>
       <c r="G41">
-        <v>2.377130641280214</v>
+        <v>7.312162314812519</v>
       </c>
       <c r="I41">
-        <v>11.38315373960177</v>
+        <v>35.01510028645563</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,28 +1589,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>3.03434379954355</v>
+        <v>9.333779976542708</v>
       </c>
       <c r="C42">
-        <v>0.9770317917835201</v>
+        <v>3.005394370923451</v>
       </c>
       <c r="D42">
-        <v>0.1333106391953119</v>
+        <v>0.4100696087794953</v>
       </c>
       <c r="E42">
-        <v>0.5407374317218595</v>
+        <v>1.663333012406784</v>
       </c>
       <c r="F42">
-        <v>1.1852172727119</v>
+        <v>3.645782409216454</v>
       </c>
       <c r="G42">
-        <v>2.2285599762002</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="H42">
-        <v>0.07267437980511587</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I42">
-        <v>8.171875290961458</v>
+        <v>25.13706125622745</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1618,25 +1618,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>2.327312234601361</v>
+        <v>7.158918622785179</v>
       </c>
       <c r="C43">
-        <v>1.38412837169332</v>
+        <v>4.257642025474889</v>
       </c>
       <c r="D43">
-        <v>1.066485113562495</v>
+        <v>3.280556870235962</v>
       </c>
       <c r="E43">
-        <v>0.1351843579304649</v>
+        <v>0.4158332531016961</v>
       </c>
       <c r="F43">
-        <v>0.7777988352171844</v>
+        <v>2.392544706048298</v>
       </c>
       <c r="G43">
-        <v>2.971413301600267</v>
+        <v>9.140202893515649</v>
       </c>
       <c r="I43">
-        <v>8.662322214605091</v>
+        <v>26.64569837116167</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1644,28 +1644,28 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>2.88704555684726</v>
+        <v>8.880683861176552</v>
       </c>
       <c r="C44">
-        <v>0.7327738438376401</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="D44">
-        <v>0.7998638351718708</v>
+        <v>2.460417652676971</v>
       </c>
       <c r="E44">
-        <v>1.216659221374184</v>
+        <v>3.742499277915265</v>
       </c>
       <c r="F44">
-        <v>0.9629890340784187</v>
+        <v>2.962198207488368</v>
       </c>
       <c r="G44">
-        <v>2.525701306360227</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="H44">
-        <v>0.07267437980511587</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I44">
-        <v>9.197707177474717</v>
+        <v>28.29256694515987</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1673,28 +1673,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>4.256919213922745</v>
+        <v>13.09447773408175</v>
       </c>
       <c r="C45">
-        <v>0.2035482899549</v>
+        <v>0.626123827275719</v>
       </c>
       <c r="D45">
-        <v>1.733038309539053</v>
+        <v>5.330904914133439</v>
       </c>
       <c r="E45">
-        <v>0.6759217896523243</v>
+        <v>2.079166265508481</v>
       </c>
       <c r="F45">
-        <v>1.77782590906785</v>
+        <v>5.46867361382468</v>
       </c>
       <c r="G45">
-        <v>4.308549287320387</v>
+        <v>13.25329419559769</v>
       </c>
       <c r="H45">
-        <v>0.07267437980511587</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I45">
-        <v>13.02847717926238</v>
+        <v>40.07619025864358</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1702,28 +1702,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>11.28304539053572</v>
+        <v>34.70716243704715</v>
       </c>
       <c r="C46">
-        <v>0.4070965799098</v>
+        <v>1.252247654551438</v>
       </c>
       <c r="D46">
-        <v>3.466076619078107</v>
+        <v>10.66180982826688</v>
       </c>
       <c r="E46">
-        <v>4.866636885496734</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="F46">
-        <v>3.814918096541428</v>
+        <v>11.73486212966546</v>
       </c>
       <c r="G46">
-        <v>6.6856799286006</v>
+        <v>20.56545651041021</v>
       </c>
       <c r="H46">
-        <v>0.1453487596102317</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I46">
-        <v>30.66880225977262</v>
+        <v>94.33863508804583</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1731,28 +1731,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>18.5153891069235</v>
+        <v>56.95418170152513</v>
       </c>
       <c r="C47">
-        <v>0.89561247580156</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="D47">
-        <v>6.932153238156213</v>
+        <v>21.32361965653375</v>
       </c>
       <c r="E47">
-        <v>11.89622349788091</v>
+        <v>36.59332627294925</v>
       </c>
       <c r="F47">
-        <v>6.740923238548931</v>
+        <v>20.73538745241857</v>
       </c>
       <c r="G47">
-        <v>8.9142399048008</v>
+        <v>27.42060868054695</v>
       </c>
       <c r="H47">
-        <v>0.9447669374665059</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="I47">
-        <v>54.83930839957842</v>
+        <v>168.6882148108705</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1760,28 +1760,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>31.12411868172583</v>
+        <v>95.73920917686769</v>
       </c>
       <c r="C48">
-        <v>0.89561247580156</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="D48">
-        <v>11.3314043316015</v>
+        <v>34.85591674625709</v>
       </c>
       <c r="E48">
-        <v>15.0054637302816</v>
+        <v>46.15749109428828</v>
       </c>
       <c r="F48">
-        <v>8.481711107844534</v>
+        <v>26.09013036595524</v>
       </c>
       <c r="G48">
-        <v>16.93705581912152</v>
+        <v>52.0991564930392</v>
       </c>
       <c r="H48">
-        <v>1.889533874933012</v>
+        <v>5.812292413767326</v>
       </c>
       <c r="I48">
-        <v>85.66490002130955</v>
+        <v>263.509141130188</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1789,28 +1789,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>35.79347297519817</v>
+        <v>110.1023560339746</v>
       </c>
       <c r="C49">
-        <v>0.8141931598195999</v>
+        <v>2.504495309102876</v>
       </c>
       <c r="D49">
-        <v>10.39822985723432</v>
+        <v>31.98542948480064</v>
       </c>
       <c r="E49">
-        <v>8.381430191688821</v>
+        <v>25.78166169230516</v>
       </c>
       <c r="F49">
-        <v>7.037227556726908</v>
+        <v>21.64683305472269</v>
       </c>
       <c r="G49">
-        <v>9.805663895280883</v>
+        <v>30.16266954860166</v>
       </c>
       <c r="H49">
-        <v>1.017441317271622</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="I49">
-        <v>73.24765895322032</v>
+        <v>225.3131410386131</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>89.03338666944863</v>
+        <v>27.84356838982755</v>
       </c>
       <c r="C2">
-        <v>3.506293432744027</v>
+        <v>1.096529342996587</v>
       </c>
       <c r="D2">
-        <v>37.31633439893407</v>
+        <v>11.67000321746641</v>
       </c>
       <c r="E2">
-        <v>22.03916241438989</v>
+        <v>6.892346218591646</v>
       </c>
       <c r="F2">
-        <v>29.28018997401964</v>
+        <v>9.156845566658799</v>
       </c>
       <c r="G2">
-        <v>74.49265358215258</v>
+        <v>23.29621922902917</v>
       </c>
       <c r="H2">
-        <v>3.353245623327304</v>
+        <v>1.048666431028193</v>
       </c>
       <c r="I2">
-        <v>259.0212660950162</v>
+        <v>81.00417839559834</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>77.52474533914838</v>
+        <v>24.24445064376332</v>
       </c>
       <c r="C3">
-        <v>8.014384989129203</v>
+        <v>2.506352783992198</v>
       </c>
       <c r="D3">
-        <v>18.45313239507728</v>
+        <v>5.770880711933936</v>
       </c>
       <c r="E3">
-        <v>15.80166361786445</v>
+        <v>4.941682194461935</v>
       </c>
       <c r="F3">
-        <v>34.97672498842035</v>
+        <v>10.93833303098931</v>
       </c>
       <c r="G3">
-        <v>59.86832895252751</v>
+        <v>18.72272833744061</v>
       </c>
       <c r="H3">
-        <v>2.906146206883663</v>
+        <v>0.9088442402244336</v>
       </c>
       <c r="I3">
-        <v>217.5451264890509</v>
+        <v>68.03327194280574</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>82.78066027739574</v>
+        <v>25.88814221283204</v>
       </c>
       <c r="C4">
-        <v>7.763935458218915</v>
+        <v>2.428029259492442</v>
       </c>
       <c r="D4">
-        <v>32.39549909358013</v>
+        <v>10.13110169428402</v>
       </c>
       <c r="E4">
-        <v>17.04916337716954</v>
+        <v>5.33181499928788</v>
       </c>
       <c r="F4">
-        <v>29.05232857344361</v>
+        <v>9.085586068085579</v>
       </c>
       <c r="G4">
-        <v>64.43843039928535</v>
+        <v>20.15194424106204</v>
       </c>
       <c r="H4">
-        <v>3.576795331549124</v>
+        <v>1.118577526430072</v>
       </c>
       <c r="I4">
-        <v>237.0568125106424</v>
+        <v>74.13519600147407</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>76.34669543919638</v>
+        <v>23.87603701621345</v>
       </c>
       <c r="C5">
-        <v>5.384664914571183</v>
+        <v>1.683955776744758</v>
       </c>
       <c r="D5">
-        <v>25.4243157443287</v>
+        <v>7.950991203108977</v>
       </c>
       <c r="E5">
-        <v>17.46499663027124</v>
+        <v>5.461859267563191</v>
       </c>
       <c r="F5">
-        <v>24.49510056192304</v>
+        <v>7.660396096621175</v>
       </c>
       <c r="G5">
-        <v>61.23935938655483</v>
+        <v>19.15149310852703</v>
       </c>
       <c r="H5">
-        <v>4.023894747992765</v>
+        <v>1.258399717233831</v>
       </c>
       <c r="I5">
-        <v>214.3790274248381</v>
+        <v>67.04313218601241</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>78.92934329678346</v>
+        <v>24.68371304584204</v>
       </c>
       <c r="C6">
-        <v>6.136013507302046</v>
+        <v>1.918926350244027</v>
       </c>
       <c r="D6">
-        <v>38.95661283405206</v>
+        <v>12.18297039186053</v>
       </c>
       <c r="E6">
-        <v>17.46499663027124</v>
+        <v>5.461859267563191</v>
       </c>
       <c r="F6">
-        <v>29.73591277517169</v>
+        <v>9.299364563805238</v>
       </c>
       <c r="G6">
-        <v>53.92719707174231</v>
+        <v>16.86474766273276</v>
       </c>
       <c r="H6">
-        <v>3.800345039770944</v>
+        <v>1.188488621831952</v>
       </c>
       <c r="I6">
-        <v>228.9504211550937</v>
+        <v>71.60006990387974</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>81.33075270822404</v>
+        <v>25.43471005584757</v>
       </c>
       <c r="C7">
-        <v>5.760339210936616</v>
+        <v>1.801441063494393</v>
       </c>
       <c r="D7">
-        <v>38.54654322527257</v>
+        <v>12.054728598262</v>
       </c>
       <c r="E7">
-        <v>14.55416385855936</v>
+        <v>4.551549389635993</v>
       </c>
       <c r="F7">
-        <v>30.76128907776382</v>
+        <v>9.620032307384729</v>
       </c>
       <c r="G7">
-        <v>62.61038982058221</v>
+        <v>19.58025787961347</v>
       </c>
       <c r="H7">
-        <v>4.694543872658226</v>
+        <v>1.468133003439469</v>
       </c>
       <c r="I7">
-        <v>238.2580217739968</v>
+        <v>74.51085229767763</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>86.26950036571512</v>
+        <v>26.97921334057592</v>
       </c>
       <c r="C8">
-        <v>6.010788741846902</v>
+        <v>1.879764587994149</v>
       </c>
       <c r="D8">
-        <v>39.36668244283154</v>
+        <v>12.31121218545906</v>
       </c>
       <c r="E8">
-        <v>12.47499759305088</v>
+        <v>3.901328048259423</v>
       </c>
       <c r="F8">
-        <v>31.10308117862786</v>
+        <v>9.72692155524456</v>
       </c>
       <c r="G8">
-        <v>35.64679128471104</v>
+        <v>11.14788404824709</v>
       </c>
       <c r="H8">
-        <v>5.141643289101865</v>
+        <v>1.607955194243229</v>
       </c>
       <c r="I8">
-        <v>216.0134848958852</v>
+        <v>67.55427896002344</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>100.9498145035784</v>
+        <v>31.57021393004365</v>
       </c>
       <c r="C9">
-        <v>5.134215383660896</v>
+        <v>1.605632252245002</v>
       </c>
       <c r="D9">
-        <v>46.33786579208296</v>
+        <v>14.4913226766341</v>
       </c>
       <c r="E9">
-        <v>17.46499663027124</v>
+        <v>5.461859267563191</v>
       </c>
       <c r="F9">
-        <v>29.62198207488368</v>
+        <v>9.263734814518628</v>
       </c>
       <c r="G9">
-        <v>35.64679128471104</v>
+        <v>11.14788404824709</v>
       </c>
       <c r="H9">
-        <v>4.023894747992765</v>
+        <v>1.258399717233831</v>
       </c>
       <c r="I9">
-        <v>239.179560417181</v>
+        <v>74.7990467064855</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>114.3161499068798</v>
+        <v>35.75029162724424</v>
       </c>
       <c r="C10">
-        <v>4.883765852750609</v>
+        <v>1.527308727745246</v>
       </c>
       <c r="D10">
-        <v>31.98542948480064</v>
+        <v>10.00285990068549</v>
       </c>
       <c r="E10">
-        <v>29.52416097022043</v>
+        <v>9.233143047547303</v>
       </c>
       <c r="F10">
-        <v>20.05180325069049</v>
+        <v>6.270835874443378</v>
       </c>
       <c r="G10">
-        <v>19.65143622105864</v>
+        <v>6.14562838557211</v>
       </c>
       <c r="H10">
-        <v>6.482941538432788</v>
+        <v>2.027421766654506</v>
       </c>
       <c r="I10">
-        <v>226.8956872248334</v>
+        <v>70.95748932989227</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>115.2223421376122</v>
+        <v>36.03368672535953</v>
       </c>
       <c r="C11">
-        <v>4.758541087295464</v>
+        <v>1.488146965495368</v>
       </c>
       <c r="D11">
-        <v>28.29480300578518</v>
+        <v>8.848683758298701</v>
       </c>
       <c r="E11">
-        <v>29.52416097022043</v>
+        <v>9.233143047547303</v>
       </c>
       <c r="F11">
-        <v>16.29209014118603</v>
+        <v>5.095054147985246</v>
       </c>
       <c r="G11">
-        <v>4.113091302082044</v>
+        <v>1.286294313259279</v>
       </c>
       <c r="H11">
-        <v>2.682596498661843</v>
+        <v>0.838933144822554</v>
       </c>
       <c r="I11">
-        <v>200.8876251428432</v>
+        <v>62.82394210276797</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>86.5866676464714</v>
+        <v>27.07840162491626</v>
       </c>
       <c r="C12">
-        <v>2.254045778192588</v>
+        <v>0.7049117204978058</v>
       </c>
       <c r="D12">
-        <v>20.09341083019527</v>
+        <v>6.283847886328063</v>
       </c>
       <c r="E12">
-        <v>27.02916145161024</v>
+        <v>8.452877437895413</v>
       </c>
       <c r="F12">
-        <v>11.05127792793737</v>
+        <v>3.456085680801181</v>
       </c>
       <c r="G12">
-        <v>8.226182604164087</v>
+        <v>2.572588626518558</v>
       </c>
       <c r="H12">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="I12">
-        <v>155.9113953632364</v>
+        <v>48.75844626316292</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>70.86423244326599</v>
+        <v>22.16149667261593</v>
       </c>
       <c r="C13">
-        <v>3.381068667288883</v>
+        <v>1.057367580746709</v>
       </c>
       <c r="D13">
-        <v>13.53229708972335</v>
+        <v>4.231979188751553</v>
       </c>
       <c r="E13">
-        <v>30.35582747642382</v>
+        <v>9.493231584097931</v>
       </c>
       <c r="F13">
-        <v>6.721911316992835</v>
+        <v>2.102155207909997</v>
       </c>
       <c r="G13">
-        <v>7.769172459488304</v>
+        <v>2.429667036156415</v>
       </c>
       <c r="H13">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="I13">
-        <v>133.2951585778486</v>
+        <v>41.68563055648417</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>51.83419559788761</v>
+        <v>16.21019961219477</v>
       </c>
       <c r="C14">
-        <v>1.878371481827158</v>
+        <v>0.5874264337481715</v>
       </c>
       <c r="D14">
-        <v>11.48194904582587</v>
+        <v>3.590770220758894</v>
       </c>
       <c r="E14">
-        <v>22.87082892059329</v>
+        <v>7.152434755142275</v>
       </c>
       <c r="F14">
-        <v>6.03832711526475</v>
+        <v>1.888376712190336</v>
       </c>
       <c r="G14">
-        <v>4.113091302082044</v>
+        <v>1.286294313259279</v>
       </c>
       <c r="H14">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="I14">
-        <v>98.66386287992435</v>
+        <v>30.85532423809749</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>36.42892767543853</v>
+        <v>11.39248294423479</v>
       </c>
       <c r="C15">
-        <v>2.254045778192588</v>
+        <v>0.7049117204978058</v>
       </c>
       <c r="D15">
-        <v>5.740974522912933</v>
+        <v>1.795385110379447</v>
       </c>
       <c r="E15">
-        <v>11.64333108684749</v>
+        <v>3.641239511708794</v>
       </c>
       <c r="F15">
-        <v>3.30399030835241</v>
+        <v>1.033262729311693</v>
       </c>
       <c r="G15">
-        <v>8.683192748839868</v>
+        <v>2.715510216880701</v>
       </c>
       <c r="H15">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="I15">
-        <v>68.50156153702746</v>
+        <v>21.42261442381699</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>21.70330392603861</v>
+        <v>6.787312599861276</v>
       </c>
       <c r="C16">
-        <v>2.62972007455802</v>
+        <v>0.8223970072474399</v>
       </c>
       <c r="D16">
-        <v>4.920835305353942</v>
+        <v>1.538901523182383</v>
       </c>
       <c r="E16">
-        <v>4.989999037220354</v>
+        <v>1.560531219303769</v>
       </c>
       <c r="F16">
-        <v>2.962198207488368</v>
+        <v>0.926373481451863</v>
       </c>
       <c r="G16">
-        <v>5.484121736109391</v>
+        <v>1.715059084345705</v>
       </c>
       <c r="H16">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="I16">
-        <v>43.13727770321233</v>
+        <v>13.49039710619619</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>15.99429287242512</v>
+        <v>5.001923481734925</v>
       </c>
       <c r="C17">
-        <v>4.132417260019746</v>
+        <v>1.292338154245977</v>
       </c>
       <c r="D17">
-        <v>0.4100696087794953</v>
+        <v>0.1282417935985319</v>
       </c>
       <c r="E17">
-        <v>2.494999518610177</v>
+        <v>0.7802656096518843</v>
       </c>
       <c r="F17">
-        <v>4.671158711808581</v>
+        <v>1.460819720751014</v>
       </c>
       <c r="G17">
-        <v>7.312162314812519</v>
+        <v>2.286745445794274</v>
       </c>
       <c r="I17">
-        <v>35.01510028645563</v>
+        <v>10.95033420577661</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>9.333779976542708</v>
+        <v>2.918969510587519</v>
       </c>
       <c r="C18">
-        <v>3.005394370923451</v>
+        <v>0.9398822939970746</v>
       </c>
       <c r="D18">
-        <v>0.4100696087794953</v>
+        <v>0.1282417935985319</v>
       </c>
       <c r="E18">
-        <v>1.663333012406784</v>
+        <v>0.5201770731012563</v>
       </c>
       <c r="F18">
-        <v>3.645782409216454</v>
+        <v>1.140151977171524</v>
       </c>
       <c r="G18">
-        <v>6.855152170136737</v>
+        <v>2.143823855432132</v>
       </c>
       <c r="H18">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="I18">
-        <v>25.13706125622745</v>
+        <v>7.861157599289916</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>7.158918622785179</v>
+        <v>2.238821275110817</v>
       </c>
       <c r="C19">
-        <v>4.257642025474889</v>
+        <v>1.331499916495855</v>
       </c>
       <c r="D19">
-        <v>3.280556870235962</v>
+        <v>1.025934348788256</v>
       </c>
       <c r="E19">
-        <v>0.4158332531016961</v>
+        <v>0.1300442682753141</v>
       </c>
       <c r="F19">
-        <v>2.392544706048298</v>
+        <v>0.7482247350188121</v>
       </c>
       <c r="G19">
-        <v>9.140202893515649</v>
+        <v>2.858431807242844</v>
       </c>
       <c r="I19">
-        <v>26.64569837116167</v>
+        <v>8.332956350931898</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>8.880683861176552</v>
+        <v>2.777271961529875</v>
       </c>
       <c r="C20">
-        <v>2.254045778192588</v>
+        <v>0.7049117204978058</v>
       </c>
       <c r="D20">
-        <v>2.460417652676971</v>
+        <v>0.7694507615911914</v>
       </c>
       <c r="E20">
-        <v>3.742499277915265</v>
+        <v>1.170398414477827</v>
       </c>
       <c r="F20">
-        <v>2.962198207488368</v>
+        <v>0.926373481451863</v>
       </c>
       <c r="G20">
-        <v>7.769172459488304</v>
+        <v>2.429667036156415</v>
       </c>
       <c r="H20">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="I20">
-        <v>28.29256694515987</v>
+        <v>8.847984471106857</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>13.09447773408175</v>
+        <v>4.095059167765986</v>
       </c>
       <c r="C21">
-        <v>0.626123827275719</v>
+        <v>0.1958088112493905</v>
       </c>
       <c r="D21">
-        <v>5.330904914133439</v>
+        <v>1.667143316780914</v>
       </c>
       <c r="E21">
-        <v>2.079166265508481</v>
+        <v>0.6502213413765704</v>
       </c>
       <c r="F21">
-        <v>5.46867361382468</v>
+        <v>1.710227965757285</v>
       </c>
       <c r="G21">
-        <v>13.25329419559769</v>
+        <v>4.144726120502122</v>
       </c>
       <c r="H21">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="I21">
-        <v>40.07619025864358</v>
+        <v>12.53309781883415</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>34.70716243704715</v>
+        <v>10.85403225781573</v>
       </c>
       <c r="C22">
-        <v>1.252247654551438</v>
+        <v>0.3916176224987811</v>
       </c>
       <c r="D22">
-        <v>10.66180982826688</v>
+        <v>3.334286633561828</v>
       </c>
       <c r="E22">
-        <v>14.96999711166106</v>
+        <v>4.681593657911308</v>
       </c>
       <c r="F22">
-        <v>11.73486212966546</v>
+        <v>3.669864176520842</v>
       </c>
       <c r="G22">
-        <v>20.56545651041021</v>
+        <v>6.431471566296396</v>
       </c>
       <c r="H22">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="I22">
-        <v>94.33863508804583</v>
+        <v>29.50268810540865</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>56.95418170152513</v>
+        <v>17.81138191654617</v>
       </c>
       <c r="C23">
-        <v>2.754944840013164</v>
+        <v>0.8615587694973182</v>
       </c>
       <c r="D23">
-        <v>21.32361965653375</v>
+        <v>6.668573267123657</v>
       </c>
       <c r="E23">
-        <v>36.59332627294925</v>
+        <v>11.44389560822764</v>
       </c>
       <c r="F23">
-        <v>20.73538745241857</v>
+        <v>6.484614370163039</v>
       </c>
       <c r="G23">
-        <v>27.42060868054695</v>
+        <v>8.575295421728528</v>
       </c>
       <c r="H23">
-        <v>2.906146206883663</v>
+        <v>0.9088442402244336</v>
       </c>
       <c r="I23">
-        <v>168.6882148108705</v>
+        <v>52.75416359351079</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>95.73920917686769</v>
+        <v>29.94069211588074</v>
       </c>
       <c r="C24">
-        <v>2.754944840013164</v>
+        <v>0.8615587694973182</v>
       </c>
       <c r="D24">
-        <v>34.85591674625709</v>
+        <v>10.90055245587521</v>
       </c>
       <c r="E24">
-        <v>46.15749109428828</v>
+        <v>14.43491377855987</v>
       </c>
       <c r="F24">
-        <v>26.09013036595524</v>
+        <v>8.159212586633716</v>
       </c>
       <c r="G24">
-        <v>52.0991564930392</v>
+        <v>16.2930613012842</v>
       </c>
       <c r="H24">
-        <v>5.812292413767326</v>
+        <v>1.817688480448867</v>
       </c>
       <c r="I24">
-        <v>263.509141130188</v>
+        <v>82.40767948817992</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>110.1023560339746</v>
+        <v>34.43250442100813</v>
       </c>
       <c r="C25">
-        <v>2.504495309102876</v>
+        <v>0.7832352449975621</v>
       </c>
       <c r="D25">
-        <v>31.98542948480064</v>
+        <v>10.00285990068549</v>
       </c>
       <c r="E25">
-        <v>25.78166169230516</v>
+        <v>8.062744633069473</v>
       </c>
       <c r="F25">
-        <v>21.64683305472269</v>
+        <v>6.769652364455921</v>
       </c>
       <c r="G25">
-        <v>30.16266954860166</v>
+        <v>9.43282496390138</v>
       </c>
       <c r="H25">
-        <v>3.129695915105484</v>
+        <v>0.9787553356263129</v>
       </c>
       <c r="I25">
-        <v>225.3131410386131</v>
+        <v>70.46257686374426</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>89.03338666944863</v>
+        <v>27.84356838982755</v>
       </c>
       <c r="C26">
-        <v>3.506293432744027</v>
+        <v>1.096529342996587</v>
       </c>
       <c r="D26">
-        <v>37.31633439893407</v>
+        <v>11.67000321746641</v>
       </c>
       <c r="E26">
-        <v>22.03916241438989</v>
+        <v>6.892346218591646</v>
       </c>
       <c r="F26">
-        <v>29.28018997401964</v>
+        <v>9.156845566658799</v>
       </c>
       <c r="G26">
-        <v>74.49265358215258</v>
+        <v>23.29621922902917</v>
       </c>
       <c r="H26">
-        <v>3.353245623327304</v>
+        <v>1.048666431028193</v>
       </c>
       <c r="I26">
-        <v>259.0212660950162</v>
+        <v>81.00417839559834</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>76.57324349687943</v>
+        <v>23.94688579074228</v>
       </c>
       <c r="C27">
-        <v>6.887362100032909</v>
+        <v>2.153896923743296</v>
       </c>
       <c r="D27">
-        <v>33.62570791991861</v>
+        <v>10.51582707507962</v>
       </c>
       <c r="E27">
-        <v>17.04916337716954</v>
+        <v>5.33181499928788</v>
       </c>
       <c r="F27">
-        <v>34.29314078669226</v>
+        <v>10.72455453526964</v>
       </c>
       <c r="G27">
-        <v>67.18049126734003</v>
+        <v>21.0094737832349</v>
       </c>
       <c r="H27">
-        <v>4.918093580880046</v>
+        <v>1.538044098841349</v>
       </c>
       <c r="I27">
-        <v>240.5272025289128</v>
+        <v>75.22049720619897</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>80.65110853517483</v>
+        <v>25.22216373226111</v>
       </c>
       <c r="C28">
-        <v>6.386463038212333</v>
+        <v>1.997249874743783</v>
       </c>
       <c r="D28">
-        <v>31.98542948480064</v>
+        <v>10.00285990068549</v>
       </c>
       <c r="E28">
-        <v>24.11832867989837</v>
+        <v>7.542567559968218</v>
       </c>
       <c r="F28">
-        <v>28.2548136714275</v>
+        <v>8.836177823079309</v>
       </c>
       <c r="G28">
-        <v>78.14873473955878</v>
+        <v>24.4395919519263</v>
       </c>
       <c r="H28">
-        <v>5.141643289101865</v>
+        <v>1.607955194243229</v>
       </c>
       <c r="I28">
-        <v>254.6865214381743</v>
+        <v>79.64856603690744</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>80.37925086595513</v>
+        <v>25.1371452028265</v>
       </c>
       <c r="C29">
-        <v>5.885563976391759</v>
+        <v>1.840602825744271</v>
       </c>
       <c r="D29">
-        <v>27.06459417944669</v>
+        <v>8.463958377503106</v>
       </c>
       <c r="E29">
-        <v>16.21749687096614</v>
+        <v>5.07172646273725</v>
       </c>
       <c r="F29">
-        <v>25.86226896537922</v>
+        <v>8.087953088060495</v>
       </c>
       <c r="G29">
-        <v>58.49729851850015</v>
+        <v>18.29396356635419</v>
       </c>
       <c r="H29">
-        <v>3.129695915105484</v>
+        <v>0.9787553356263129</v>
       </c>
       <c r="I29">
-        <v>217.0361692917446</v>
+        <v>67.87410485885212</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>85.04614085422645</v>
+        <v>26.59662995812027</v>
       </c>
       <c r="C30">
-        <v>6.136013507302046</v>
+        <v>1.918926350244027</v>
       </c>
       <c r="D30">
-        <v>26.2444549618877</v>
+        <v>8.207474790306044</v>
       </c>
       <c r="E30">
-        <v>19.12832964267803</v>
+        <v>5.982036340664449</v>
       </c>
       <c r="F30">
-        <v>32.24238818150801</v>
+        <v>10.08321904811066</v>
       </c>
       <c r="G30">
-        <v>48.44307533563295</v>
+        <v>15.14968857838706</v>
       </c>
       <c r="H30">
-        <v>4.694543872658226</v>
+        <v>1.468133003439469</v>
       </c>
       <c r="I30">
-        <v>221.9349463558934</v>
+        <v>69.40610806927199</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>82.01039688127325</v>
+        <v>25.64725637943402</v>
       </c>
       <c r="C31">
-        <v>4.883765852750609</v>
+        <v>1.527308727745246</v>
       </c>
       <c r="D31">
-        <v>37.31633439893407</v>
+        <v>11.67000321746641</v>
       </c>
       <c r="E31">
-        <v>17.46499663027124</v>
+        <v>5.461859267563191</v>
       </c>
       <c r="F31">
-        <v>30.5334276771878</v>
+        <v>9.54877280881151</v>
       </c>
       <c r="G31">
-        <v>46.15802461225403</v>
+        <v>14.43508062657635</v>
       </c>
       <c r="H31">
-        <v>5.365192997323686</v>
+        <v>1.677866289645108</v>
       </c>
       <c r="I31">
-        <v>223.7321390499947</v>
+        <v>69.96814731724184</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>86.85852531569107</v>
+        <v>27.16342015435085</v>
       </c>
       <c r="C32">
-        <v>5.63511444548147</v>
+        <v>1.762279301244514</v>
       </c>
       <c r="D32">
-        <v>36.90626479015456</v>
+        <v>11.54176142386787</v>
       </c>
       <c r="E32">
-        <v>18.29666313647462</v>
+        <v>5.721947804113821</v>
       </c>
       <c r="F32">
-        <v>29.73591277517169</v>
+        <v>9.299364563805238</v>
       </c>
       <c r="G32">
-        <v>45.70101446757823</v>
+        <v>14.29215903621421</v>
       </c>
       <c r="H32">
-        <v>3.129695915105484</v>
+        <v>0.9787553356263129</v>
       </c>
       <c r="I32">
-        <v>226.2631908456571</v>
+        <v>70.75968761922283</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>100.9498145035784</v>
+        <v>31.57021393004365</v>
       </c>
       <c r="C33">
-        <v>5.134215383660896</v>
+        <v>1.605632252245002</v>
       </c>
       <c r="D33">
-        <v>46.33786579208296</v>
+        <v>14.4913226766341</v>
       </c>
       <c r="E33">
-        <v>17.46499663027124</v>
+        <v>5.461859267563191</v>
       </c>
       <c r="F33">
-        <v>29.62198207488368</v>
+        <v>9.263734814518628</v>
       </c>
       <c r="G33">
-        <v>35.64679128471104</v>
+        <v>11.14788404824709</v>
       </c>
       <c r="H33">
-        <v>4.023894747992765</v>
+        <v>1.258399717233831</v>
       </c>
       <c r="I33">
-        <v>239.179560417181</v>
+        <v>74.7990467064855</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>114.3161499068798</v>
+        <v>35.75029162724424</v>
       </c>
       <c r="C34">
-        <v>4.883765852750609</v>
+        <v>1.527308727745246</v>
       </c>
       <c r="D34">
-        <v>31.98542948480064</v>
+        <v>10.00285990068549</v>
       </c>
       <c r="E34">
-        <v>29.52416097022043</v>
+        <v>9.233143047547303</v>
       </c>
       <c r="F34">
-        <v>20.05180325069049</v>
+        <v>6.270835874443378</v>
       </c>
       <c r="G34">
-        <v>19.65143622105864</v>
+        <v>6.14562838557211</v>
       </c>
       <c r="H34">
-        <v>6.482941538432788</v>
+        <v>2.027421766654506</v>
       </c>
       <c r="I34">
-        <v>226.8956872248334</v>
+        <v>70.95748932989227</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>115.2223421376122</v>
+        <v>36.03368672535953</v>
       </c>
       <c r="C35">
-        <v>4.758541087295464</v>
+        <v>1.488146965495368</v>
       </c>
       <c r="D35">
-        <v>28.29480300578518</v>
+        <v>8.848683758298701</v>
       </c>
       <c r="E35">
-        <v>29.52416097022043</v>
+        <v>9.233143047547303</v>
       </c>
       <c r="F35">
-        <v>16.29209014118603</v>
+        <v>5.095054147985246</v>
       </c>
       <c r="G35">
-        <v>4.113091302082044</v>
+        <v>1.286294313259279</v>
       </c>
       <c r="H35">
-        <v>2.682596498661843</v>
+        <v>0.838933144822554</v>
       </c>
       <c r="I35">
-        <v>200.8876251428432</v>
+        <v>62.82394210276797</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>86.5866676464714</v>
+        <v>27.07840162491626</v>
       </c>
       <c r="C36">
-        <v>2.254045778192588</v>
+        <v>0.7049117204978058</v>
       </c>
       <c r="D36">
-        <v>20.09341083019527</v>
+        <v>6.283847886328063</v>
       </c>
       <c r="E36">
-        <v>27.02916145161024</v>
+        <v>8.452877437895413</v>
       </c>
       <c r="F36">
-        <v>11.05127792793737</v>
+        <v>3.456085680801181</v>
       </c>
       <c r="G36">
-        <v>8.226182604164087</v>
+        <v>2.572588626518558</v>
       </c>
       <c r="H36">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="I36">
-        <v>155.9113953632364</v>
+        <v>48.75844626316292</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>70.86423244326599</v>
+        <v>22.16149667261593</v>
       </c>
       <c r="C37">
-        <v>3.381068667288883</v>
+        <v>1.057367580746709</v>
       </c>
       <c r="D37">
-        <v>13.53229708972335</v>
+        <v>4.231979188751553</v>
       </c>
       <c r="E37">
-        <v>30.35582747642382</v>
+        <v>9.493231584097931</v>
       </c>
       <c r="F37">
-        <v>6.721911316992835</v>
+        <v>2.102155207909997</v>
       </c>
       <c r="G37">
-        <v>7.769172459488304</v>
+        <v>2.429667036156415</v>
       </c>
       <c r="H37">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="I37">
-        <v>133.2951585778486</v>
+        <v>41.68563055648417</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>51.83419559788761</v>
+        <v>16.21019961219477</v>
       </c>
       <c r="C38">
-        <v>1.878371481827158</v>
+        <v>0.5874264337481715</v>
       </c>
       <c r="D38">
-        <v>11.48194904582587</v>
+        <v>3.590770220758894</v>
       </c>
       <c r="E38">
-        <v>22.87082892059329</v>
+        <v>7.152434755142275</v>
       </c>
       <c r="F38">
-        <v>6.03832711526475</v>
+        <v>1.888376712190336</v>
       </c>
       <c r="G38">
-        <v>4.113091302082044</v>
+        <v>1.286294313259279</v>
       </c>
       <c r="H38">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="I38">
-        <v>98.66386287992435</v>
+        <v>30.85532423809749</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>36.42892767543853</v>
+        <v>11.39248294423479</v>
       </c>
       <c r="C39">
-        <v>2.254045778192588</v>
+        <v>0.7049117204978058</v>
       </c>
       <c r="D39">
-        <v>5.740974522912933</v>
+        <v>1.795385110379447</v>
       </c>
       <c r="E39">
-        <v>11.64333108684749</v>
+        <v>3.641239511708794</v>
       </c>
       <c r="F39">
-        <v>3.30399030835241</v>
+        <v>1.033262729311693</v>
       </c>
       <c r="G39">
-        <v>8.683192748839868</v>
+        <v>2.715510216880701</v>
       </c>
       <c r="H39">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="I39">
-        <v>68.50156153702746</v>
+        <v>21.42261442381699</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>21.70330392603861</v>
+        <v>6.787312599861276</v>
       </c>
       <c r="C40">
-        <v>2.62972007455802</v>
+        <v>0.8223970072474399</v>
       </c>
       <c r="D40">
-        <v>4.920835305353942</v>
+        <v>1.538901523182383</v>
       </c>
       <c r="E40">
-        <v>4.989999037220354</v>
+        <v>1.560531219303769</v>
       </c>
       <c r="F40">
-        <v>2.962198207488368</v>
+        <v>0.926373481451863</v>
       </c>
       <c r="G40">
-        <v>5.484121736109391</v>
+        <v>1.715059084345705</v>
       </c>
       <c r="H40">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="I40">
-        <v>43.13727770321233</v>
+        <v>13.49039710619619</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,25 +1563,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>15.99429287242512</v>
+        <v>5.001923481734925</v>
       </c>
       <c r="C41">
-        <v>4.132417260019746</v>
+        <v>1.292338154245977</v>
       </c>
       <c r="D41">
-        <v>0.4100696087794953</v>
+        <v>0.1282417935985319</v>
       </c>
       <c r="E41">
-        <v>2.494999518610177</v>
+        <v>0.7802656096518843</v>
       </c>
       <c r="F41">
-        <v>4.671158711808581</v>
+        <v>1.460819720751014</v>
       </c>
       <c r="G41">
-        <v>7.312162314812519</v>
+        <v>2.286745445794274</v>
       </c>
       <c r="I41">
-        <v>35.01510028645563</v>
+        <v>10.95033420577661</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,28 +1589,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>9.333779976542708</v>
+        <v>2.918969510587519</v>
       </c>
       <c r="C42">
-        <v>3.005394370923451</v>
+        <v>0.9398822939970746</v>
       </c>
       <c r="D42">
-        <v>0.4100696087794953</v>
+        <v>0.1282417935985319</v>
       </c>
       <c r="E42">
-        <v>1.663333012406784</v>
+        <v>0.5201770731012563</v>
       </c>
       <c r="F42">
-        <v>3.645782409216454</v>
+        <v>1.140151977171524</v>
       </c>
       <c r="G42">
-        <v>6.855152170136737</v>
+        <v>2.143823855432132</v>
       </c>
       <c r="H42">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="I42">
-        <v>25.13706125622745</v>
+        <v>7.861157599289916</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1618,25 +1618,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>7.158918622785179</v>
+        <v>2.238821275110817</v>
       </c>
       <c r="C43">
-        <v>4.257642025474889</v>
+        <v>1.331499916495855</v>
       </c>
       <c r="D43">
-        <v>3.280556870235962</v>
+        <v>1.025934348788256</v>
       </c>
       <c r="E43">
-        <v>0.4158332531016961</v>
+        <v>0.1300442682753141</v>
       </c>
       <c r="F43">
-        <v>2.392544706048298</v>
+        <v>0.7482247350188121</v>
       </c>
       <c r="G43">
-        <v>9.140202893515649</v>
+        <v>2.858431807242844</v>
       </c>
       <c r="I43">
-        <v>26.64569837116167</v>
+        <v>8.332956350931898</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1644,28 +1644,28 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>8.880683861176552</v>
+        <v>2.777271961529875</v>
       </c>
       <c r="C44">
-        <v>2.254045778192588</v>
+        <v>0.7049117204978058</v>
       </c>
       <c r="D44">
-        <v>2.460417652676971</v>
+        <v>0.7694507615911914</v>
       </c>
       <c r="E44">
-        <v>3.742499277915265</v>
+        <v>1.170398414477827</v>
       </c>
       <c r="F44">
-        <v>2.962198207488368</v>
+        <v>0.926373481451863</v>
       </c>
       <c r="G44">
-        <v>7.769172459488304</v>
+        <v>2.429667036156415</v>
       </c>
       <c r="H44">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="I44">
-        <v>28.29256694515987</v>
+        <v>8.847984471106857</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1673,28 +1673,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>13.09447773408175</v>
+        <v>4.095059167765986</v>
       </c>
       <c r="C45">
-        <v>0.626123827275719</v>
+        <v>0.1958088112493905</v>
       </c>
       <c r="D45">
-        <v>5.330904914133439</v>
+        <v>1.667143316780914</v>
       </c>
       <c r="E45">
-        <v>2.079166265508481</v>
+        <v>0.6502213413765704</v>
       </c>
       <c r="F45">
-        <v>5.46867361382468</v>
+        <v>1.710227965757285</v>
       </c>
       <c r="G45">
-        <v>13.25329419559769</v>
+        <v>4.144726120502122</v>
       </c>
       <c r="H45">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="I45">
-        <v>40.07619025864358</v>
+        <v>12.53309781883415</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1702,28 +1702,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>34.70716243704715</v>
+        <v>10.85403225781573</v>
       </c>
       <c r="C46">
-        <v>1.252247654551438</v>
+        <v>0.3916176224987811</v>
       </c>
       <c r="D46">
-        <v>10.66180982826688</v>
+        <v>3.334286633561828</v>
       </c>
       <c r="E46">
-        <v>14.96999711166106</v>
+        <v>4.681593657911308</v>
       </c>
       <c r="F46">
-        <v>11.73486212966546</v>
+        <v>3.669864176520842</v>
       </c>
       <c r="G46">
-        <v>20.56545651041021</v>
+        <v>6.431471566296396</v>
       </c>
       <c r="H46">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="I46">
-        <v>94.33863508804583</v>
+        <v>29.50268810540865</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1731,28 +1731,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>56.95418170152513</v>
+        <v>17.81138191654617</v>
       </c>
       <c r="C47">
-        <v>2.754944840013164</v>
+        <v>0.8615587694973182</v>
       </c>
       <c r="D47">
-        <v>21.32361965653375</v>
+        <v>6.668573267123657</v>
       </c>
       <c r="E47">
-        <v>36.59332627294925</v>
+        <v>11.44389560822764</v>
       </c>
       <c r="F47">
-        <v>20.73538745241857</v>
+        <v>6.484614370163039</v>
       </c>
       <c r="G47">
-        <v>27.42060868054695</v>
+        <v>8.575295421728528</v>
       </c>
       <c r="H47">
-        <v>2.906146206883663</v>
+        <v>0.9088442402244336</v>
       </c>
       <c r="I47">
-        <v>168.6882148108705</v>
+        <v>52.75416359351079</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1760,28 +1760,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>95.73920917686769</v>
+        <v>29.94069211588074</v>
       </c>
       <c r="C48">
-        <v>2.754944840013164</v>
+        <v>0.8615587694973182</v>
       </c>
       <c r="D48">
-        <v>34.85591674625709</v>
+        <v>10.90055245587521</v>
       </c>
       <c r="E48">
-        <v>46.15749109428828</v>
+        <v>14.43491377855987</v>
       </c>
       <c r="F48">
-        <v>26.09013036595524</v>
+        <v>8.159212586633716</v>
       </c>
       <c r="G48">
-        <v>52.0991564930392</v>
+        <v>16.2930613012842</v>
       </c>
       <c r="H48">
-        <v>5.812292413767326</v>
+        <v>1.817688480448867</v>
       </c>
       <c r="I48">
-        <v>263.509141130188</v>
+        <v>82.40767948817992</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1789,28 +1789,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>110.1023560339746</v>
+        <v>34.43250442100813</v>
       </c>
       <c r="C49">
-        <v>2.504495309102876</v>
+        <v>0.7832352449975621</v>
       </c>
       <c r="D49">
-        <v>31.98542948480064</v>
+        <v>10.00285990068549</v>
       </c>
       <c r="E49">
-        <v>25.78166169230516</v>
+        <v>8.062744633069473</v>
       </c>
       <c r="F49">
-        <v>21.64683305472269</v>
+        <v>6.769652364455921</v>
       </c>
       <c r="G49">
-        <v>30.16266954860166</v>
+        <v>9.43282496390138</v>
       </c>
       <c r="H49">
-        <v>3.129695915105484</v>
+        <v>0.9787553356263129</v>
       </c>
       <c r="I49">
-        <v>225.3131410386131</v>
+        <v>70.46257686374426</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>27.84356838982755</v>
+        <v>89.03338666944863</v>
       </c>
       <c r="C2">
-        <v>1.096529342996587</v>
+        <v>3.506293432744027</v>
       </c>
       <c r="D2">
-        <v>11.67000321746641</v>
+        <v>37.31633439893407</v>
       </c>
       <c r="E2">
-        <v>6.892346218591646</v>
+        <v>22.03916241438989</v>
       </c>
       <c r="F2">
-        <v>9.156845566658799</v>
+        <v>29.28018997401964</v>
       </c>
       <c r="G2">
-        <v>23.29621922902917</v>
+        <v>74.49265358215258</v>
       </c>
       <c r="H2">
-        <v>1.048666431028193</v>
+        <v>3.353245623327304</v>
       </c>
       <c r="I2">
-        <v>81.00417839559834</v>
+        <v>259.0212660950162</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>24.24445064376332</v>
+        <v>77.52474533914838</v>
       </c>
       <c r="C3">
-        <v>2.506352783992198</v>
+        <v>8.014384989129203</v>
       </c>
       <c r="D3">
-        <v>5.770880711933936</v>
+        <v>18.45313239507728</v>
       </c>
       <c r="E3">
-        <v>4.941682194461935</v>
+        <v>15.80166361786445</v>
       </c>
       <c r="F3">
-        <v>10.93833303098931</v>
+        <v>34.97672498842035</v>
       </c>
       <c r="G3">
-        <v>18.72272833744061</v>
+        <v>59.86832895252751</v>
       </c>
       <c r="H3">
-        <v>0.9088442402244336</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="I3">
-        <v>68.03327194280574</v>
+        <v>217.5451264890509</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>25.88814221283204</v>
+        <v>82.78066027739574</v>
       </c>
       <c r="C4">
-        <v>2.428029259492442</v>
+        <v>7.763935458218915</v>
       </c>
       <c r="D4">
-        <v>10.13110169428402</v>
+        <v>32.39549909358013</v>
       </c>
       <c r="E4">
-        <v>5.33181499928788</v>
+        <v>17.04916337716954</v>
       </c>
       <c r="F4">
-        <v>9.085586068085579</v>
+        <v>29.05232857344361</v>
       </c>
       <c r="G4">
-        <v>20.15194424106204</v>
+        <v>64.43843039928535</v>
       </c>
       <c r="H4">
-        <v>1.118577526430072</v>
+        <v>3.576795331549124</v>
       </c>
       <c r="I4">
-        <v>74.13519600147407</v>
+        <v>237.0568125106424</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>23.87603701621345</v>
+        <v>76.34669543919638</v>
       </c>
       <c r="C5">
-        <v>1.683955776744758</v>
+        <v>5.384664914571183</v>
       </c>
       <c r="D5">
-        <v>7.950991203108977</v>
+        <v>25.4243157443287</v>
       </c>
       <c r="E5">
-        <v>5.461859267563191</v>
+        <v>17.46499663027124</v>
       </c>
       <c r="F5">
-        <v>7.660396096621175</v>
+        <v>24.49510056192304</v>
       </c>
       <c r="G5">
-        <v>19.15149310852703</v>
+        <v>61.23935938655483</v>
       </c>
       <c r="H5">
-        <v>1.258399717233831</v>
+        <v>4.023894747992765</v>
       </c>
       <c r="I5">
-        <v>67.04313218601241</v>
+        <v>214.3790274248381</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>24.68371304584204</v>
+        <v>78.92934329678346</v>
       </c>
       <c r="C6">
-        <v>1.918926350244027</v>
+        <v>6.136013507302046</v>
       </c>
       <c r="D6">
-        <v>12.18297039186053</v>
+        <v>38.95661283405206</v>
       </c>
       <c r="E6">
-        <v>5.461859267563191</v>
+        <v>17.46499663027124</v>
       </c>
       <c r="F6">
-        <v>9.299364563805238</v>
+        <v>29.73591277517169</v>
       </c>
       <c r="G6">
-        <v>16.86474766273276</v>
+        <v>53.92719707174231</v>
       </c>
       <c r="H6">
-        <v>1.188488621831952</v>
+        <v>3.800345039770944</v>
       </c>
       <c r="I6">
-        <v>71.60006990387974</v>
+        <v>228.9504211550937</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>25.43471005584757</v>
+        <v>81.33075270822404</v>
       </c>
       <c r="C7">
-        <v>1.801441063494393</v>
+        <v>5.760339210936616</v>
       </c>
       <c r="D7">
-        <v>12.054728598262</v>
+        <v>38.54654322527257</v>
       </c>
       <c r="E7">
-        <v>4.551549389635993</v>
+        <v>14.55416385855936</v>
       </c>
       <c r="F7">
-        <v>9.620032307384729</v>
+        <v>30.76128907776382</v>
       </c>
       <c r="G7">
-        <v>19.58025787961347</v>
+        <v>62.61038982058221</v>
       </c>
       <c r="H7">
-        <v>1.468133003439469</v>
+        <v>4.694543872658226</v>
       </c>
       <c r="I7">
-        <v>74.51085229767763</v>
+        <v>238.2580217739968</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>26.97921334057592</v>
+        <v>86.26950036571512</v>
       </c>
       <c r="C8">
-        <v>1.879764587994149</v>
+        <v>6.010788741846902</v>
       </c>
       <c r="D8">
-        <v>12.31121218545906</v>
+        <v>39.36668244283154</v>
       </c>
       <c r="E8">
-        <v>3.901328048259423</v>
+        <v>12.47499759305088</v>
       </c>
       <c r="F8">
-        <v>9.72692155524456</v>
+        <v>31.10308117862786</v>
       </c>
       <c r="G8">
-        <v>11.14788404824709</v>
+        <v>35.64679128471104</v>
       </c>
       <c r="H8">
-        <v>1.607955194243229</v>
+        <v>5.141643289101865</v>
       </c>
       <c r="I8">
-        <v>67.55427896002344</v>
+        <v>216.0134848958852</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>31.57021393004365</v>
+        <v>100.9498145035784</v>
       </c>
       <c r="C9">
-        <v>1.605632252245002</v>
+        <v>5.134215383660896</v>
       </c>
       <c r="D9">
-        <v>14.4913226766341</v>
+        <v>46.33786579208296</v>
       </c>
       <c r="E9">
-        <v>5.461859267563191</v>
+        <v>17.46499663027124</v>
       </c>
       <c r="F9">
-        <v>9.263734814518628</v>
+        <v>29.62198207488368</v>
       </c>
       <c r="G9">
-        <v>11.14788404824709</v>
+        <v>35.64679128471104</v>
       </c>
       <c r="H9">
-        <v>1.258399717233831</v>
+        <v>4.023894747992765</v>
       </c>
       <c r="I9">
-        <v>74.7990467064855</v>
+        <v>239.179560417181</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>35.75029162724424</v>
+        <v>114.3161499068798</v>
       </c>
       <c r="C10">
-        <v>1.527308727745246</v>
+        <v>4.883765852750609</v>
       </c>
       <c r="D10">
-        <v>10.00285990068549</v>
+        <v>31.98542948480064</v>
       </c>
       <c r="E10">
-        <v>9.233143047547303</v>
+        <v>29.52416097022043</v>
       </c>
       <c r="F10">
-        <v>6.270835874443378</v>
+        <v>20.05180325069049</v>
       </c>
       <c r="G10">
-        <v>6.14562838557211</v>
+        <v>19.65143622105864</v>
       </c>
       <c r="H10">
-        <v>2.027421766654506</v>
+        <v>6.482941538432788</v>
       </c>
       <c r="I10">
-        <v>70.95748932989227</v>
+        <v>226.8956872248334</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>36.03368672535953</v>
+        <v>115.2223421376122</v>
       </c>
       <c r="C11">
-        <v>1.488146965495368</v>
+        <v>4.758541087295464</v>
       </c>
       <c r="D11">
-        <v>8.848683758298701</v>
+        <v>28.29480300578518</v>
       </c>
       <c r="E11">
-        <v>9.233143047547303</v>
+        <v>29.52416097022043</v>
       </c>
       <c r="F11">
-        <v>5.095054147985246</v>
+        <v>16.29209014118603</v>
       </c>
       <c r="G11">
-        <v>1.286294313259279</v>
+        <v>4.113091302082044</v>
       </c>
       <c r="H11">
-        <v>0.838933144822554</v>
+        <v>2.682596498661843</v>
       </c>
       <c r="I11">
-        <v>62.82394210276797</v>
+        <v>200.8876251428432</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>27.07840162491626</v>
+        <v>86.5866676464714</v>
       </c>
       <c r="C12">
-        <v>0.7049117204978058</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="D12">
-        <v>6.283847886328063</v>
+        <v>20.09341083019527</v>
       </c>
       <c r="E12">
-        <v>8.452877437895413</v>
+        <v>27.02916145161024</v>
       </c>
       <c r="F12">
-        <v>3.456085680801181</v>
+        <v>11.05127792793737</v>
       </c>
       <c r="G12">
-        <v>2.572588626518558</v>
+        <v>8.226182604164087</v>
       </c>
       <c r="H12">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I12">
-        <v>48.75844626316292</v>
+        <v>155.9113953632364</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>22.16149667261593</v>
+        <v>70.86423244326599</v>
       </c>
       <c r="C13">
-        <v>1.057367580746709</v>
+        <v>3.381068667288883</v>
       </c>
       <c r="D13">
-        <v>4.231979188751553</v>
+        <v>13.53229708972335</v>
       </c>
       <c r="E13">
-        <v>9.493231584097931</v>
+        <v>30.35582747642382</v>
       </c>
       <c r="F13">
-        <v>2.102155207909997</v>
+        <v>6.721911316992835</v>
       </c>
       <c r="G13">
-        <v>2.429667036156415</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="H13">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I13">
-        <v>41.68563055648417</v>
+        <v>133.2951585778486</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>16.21019961219477</v>
+        <v>51.83419559788761</v>
       </c>
       <c r="C14">
-        <v>0.5874264337481715</v>
+        <v>1.878371481827158</v>
       </c>
       <c r="D14">
-        <v>3.590770220758894</v>
+        <v>11.48194904582587</v>
       </c>
       <c r="E14">
-        <v>7.152434755142275</v>
+        <v>22.87082892059329</v>
       </c>
       <c r="F14">
-        <v>1.888376712190336</v>
+        <v>6.03832711526475</v>
       </c>
       <c r="G14">
-        <v>1.286294313259279</v>
+        <v>4.113091302082044</v>
       </c>
       <c r="H14">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I14">
-        <v>30.85532423809749</v>
+        <v>98.66386287992435</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>11.39248294423479</v>
+        <v>36.42892767543853</v>
       </c>
       <c r="C15">
-        <v>0.7049117204978058</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="D15">
-        <v>1.795385110379447</v>
+        <v>5.740974522912933</v>
       </c>
       <c r="E15">
-        <v>3.641239511708794</v>
+        <v>11.64333108684749</v>
       </c>
       <c r="F15">
-        <v>1.033262729311693</v>
+        <v>3.30399030835241</v>
       </c>
       <c r="G15">
-        <v>2.715510216880701</v>
+        <v>8.683192748839868</v>
       </c>
       <c r="H15">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I15">
-        <v>21.42261442381699</v>
+        <v>68.50156153702746</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>6.787312599861276</v>
+        <v>21.70330392603861</v>
       </c>
       <c r="C16">
-        <v>0.8223970072474399</v>
+        <v>2.62972007455802</v>
       </c>
       <c r="D16">
-        <v>1.538901523182383</v>
+        <v>4.920835305353942</v>
       </c>
       <c r="E16">
-        <v>1.560531219303769</v>
+        <v>4.989999037220354</v>
       </c>
       <c r="F16">
-        <v>0.926373481451863</v>
+        <v>2.962198207488368</v>
       </c>
       <c r="G16">
-        <v>1.715059084345705</v>
+        <v>5.484121736109391</v>
       </c>
       <c r="H16">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I16">
-        <v>13.49039710619619</v>
+        <v>43.13727770321233</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>5.001923481734925</v>
+        <v>15.99429287242512</v>
       </c>
       <c r="C17">
-        <v>1.292338154245977</v>
+        <v>4.132417260019746</v>
       </c>
       <c r="D17">
-        <v>0.1282417935985319</v>
+        <v>0.4100696087794953</v>
       </c>
       <c r="E17">
-        <v>0.7802656096518843</v>
+        <v>2.494999518610177</v>
       </c>
       <c r="F17">
-        <v>1.460819720751014</v>
+        <v>4.671158711808581</v>
       </c>
       <c r="G17">
-        <v>2.286745445794274</v>
+        <v>7.312162314812519</v>
       </c>
       <c r="I17">
-        <v>10.95033420577661</v>
+        <v>35.01510028645563</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>2.918969510587519</v>
+        <v>9.333779976542708</v>
       </c>
       <c r="C18">
-        <v>0.9398822939970746</v>
+        <v>3.005394370923451</v>
       </c>
       <c r="D18">
-        <v>0.1282417935985319</v>
+        <v>0.4100696087794953</v>
       </c>
       <c r="E18">
-        <v>0.5201770731012563</v>
+        <v>1.663333012406784</v>
       </c>
       <c r="F18">
-        <v>1.140151977171524</v>
+        <v>3.645782409216454</v>
       </c>
       <c r="G18">
-        <v>2.143823855432132</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="H18">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I18">
-        <v>7.861157599289916</v>
+        <v>25.13706125622745</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>2.238821275110817</v>
+        <v>7.158918622785179</v>
       </c>
       <c r="C19">
-        <v>1.331499916495855</v>
+        <v>4.257642025474889</v>
       </c>
       <c r="D19">
-        <v>1.025934348788256</v>
+        <v>3.280556870235962</v>
       </c>
       <c r="E19">
-        <v>0.1300442682753141</v>
+        <v>0.4158332531016961</v>
       </c>
       <c r="F19">
-        <v>0.7482247350188121</v>
+        <v>2.392544706048298</v>
       </c>
       <c r="G19">
-        <v>2.858431807242844</v>
+        <v>9.140202893515649</v>
       </c>
       <c r="I19">
-        <v>8.332956350931898</v>
+        <v>26.64569837116167</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>2.777271961529875</v>
+        <v>8.880683861176552</v>
       </c>
       <c r="C20">
-        <v>0.7049117204978058</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="D20">
-        <v>0.7694507615911914</v>
+        <v>2.460417652676971</v>
       </c>
       <c r="E20">
-        <v>1.170398414477827</v>
+        <v>3.742499277915265</v>
       </c>
       <c r="F20">
-        <v>0.926373481451863</v>
+        <v>2.962198207488368</v>
       </c>
       <c r="G20">
-        <v>2.429667036156415</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="H20">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I20">
-        <v>8.847984471106857</v>
+        <v>28.29256694515987</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>4.095059167765986</v>
+        <v>13.09447773408175</v>
       </c>
       <c r="C21">
-        <v>0.1958088112493905</v>
+        <v>0.626123827275719</v>
       </c>
       <c r="D21">
-        <v>1.667143316780914</v>
+        <v>5.330904914133439</v>
       </c>
       <c r="E21">
-        <v>0.6502213413765704</v>
+        <v>2.079166265508481</v>
       </c>
       <c r="F21">
-        <v>1.710227965757285</v>
+        <v>5.46867361382468</v>
       </c>
       <c r="G21">
-        <v>4.144726120502122</v>
+        <v>13.25329419559769</v>
       </c>
       <c r="H21">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I21">
-        <v>12.53309781883415</v>
+        <v>40.07619025864358</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>10.85403225781573</v>
+        <v>34.70716243704715</v>
       </c>
       <c r="C22">
-        <v>0.3916176224987811</v>
+        <v>1.252247654551438</v>
       </c>
       <c r="D22">
-        <v>3.334286633561828</v>
+        <v>10.66180982826688</v>
       </c>
       <c r="E22">
-        <v>4.681593657911308</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="F22">
-        <v>3.669864176520842</v>
+        <v>11.73486212966546</v>
       </c>
       <c r="G22">
-        <v>6.431471566296396</v>
+        <v>20.56545651041021</v>
       </c>
       <c r="H22">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I22">
-        <v>29.50268810540865</v>
+        <v>94.33863508804583</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>17.81138191654617</v>
+        <v>56.95418170152513</v>
       </c>
       <c r="C23">
-        <v>0.8615587694973182</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="D23">
-        <v>6.668573267123657</v>
+        <v>21.32361965653375</v>
       </c>
       <c r="E23">
-        <v>11.44389560822764</v>
+        <v>36.59332627294925</v>
       </c>
       <c r="F23">
-        <v>6.484614370163039</v>
+        <v>20.73538745241857</v>
       </c>
       <c r="G23">
-        <v>8.575295421728528</v>
+        <v>27.42060868054695</v>
       </c>
       <c r="H23">
-        <v>0.9088442402244336</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="I23">
-        <v>52.75416359351079</v>
+        <v>168.6882148108705</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>29.94069211588074</v>
+        <v>95.73920917686769</v>
       </c>
       <c r="C24">
-        <v>0.8615587694973182</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="D24">
-        <v>10.90055245587521</v>
+        <v>34.85591674625709</v>
       </c>
       <c r="E24">
-        <v>14.43491377855987</v>
+        <v>46.15749109428828</v>
       </c>
       <c r="F24">
-        <v>8.159212586633716</v>
+        <v>26.09013036595524</v>
       </c>
       <c r="G24">
-        <v>16.2930613012842</v>
+        <v>52.0991564930392</v>
       </c>
       <c r="H24">
-        <v>1.817688480448867</v>
+        <v>5.812292413767326</v>
       </c>
       <c r="I24">
-        <v>82.40767948817992</v>
+        <v>263.509141130188</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>34.43250442100813</v>
+        <v>110.1023560339746</v>
       </c>
       <c r="C25">
-        <v>0.7832352449975621</v>
+        <v>2.504495309102876</v>
       </c>
       <c r="D25">
-        <v>10.00285990068549</v>
+        <v>31.98542948480064</v>
       </c>
       <c r="E25">
-        <v>8.062744633069473</v>
+        <v>25.78166169230516</v>
       </c>
       <c r="F25">
-        <v>6.769652364455921</v>
+        <v>21.64683305472269</v>
       </c>
       <c r="G25">
-        <v>9.43282496390138</v>
+        <v>30.16266954860166</v>
       </c>
       <c r="H25">
-        <v>0.9787553356263129</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="I25">
-        <v>70.46257686374426</v>
+        <v>225.3131410386131</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>27.84356838982755</v>
+        <v>89.03338666944863</v>
       </c>
       <c r="C26">
-        <v>1.096529342996587</v>
+        <v>3.506293432744027</v>
       </c>
       <c r="D26">
-        <v>11.67000321746641</v>
+        <v>37.31633439893407</v>
       </c>
       <c r="E26">
-        <v>6.892346218591646</v>
+        <v>22.03916241438989</v>
       </c>
       <c r="F26">
-        <v>9.156845566658799</v>
+        <v>29.28018997401964</v>
       </c>
       <c r="G26">
-        <v>23.29621922902917</v>
+        <v>74.49265358215258</v>
       </c>
       <c r="H26">
-        <v>1.048666431028193</v>
+        <v>3.353245623327304</v>
       </c>
       <c r="I26">
-        <v>81.00417839559834</v>
+        <v>259.0212660950162</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>23.94688579074228</v>
+        <v>76.57324349687943</v>
       </c>
       <c r="C27">
-        <v>2.153896923743296</v>
+        <v>6.887362100032909</v>
       </c>
       <c r="D27">
-        <v>10.51582707507962</v>
+        <v>33.62570791991861</v>
       </c>
       <c r="E27">
-        <v>5.33181499928788</v>
+        <v>17.04916337716954</v>
       </c>
       <c r="F27">
-        <v>10.72455453526964</v>
+        <v>34.29314078669226</v>
       </c>
       <c r="G27">
-        <v>21.0094737832349</v>
+        <v>67.18049126734003</v>
       </c>
       <c r="H27">
-        <v>1.538044098841349</v>
+        <v>4.918093580880046</v>
       </c>
       <c r="I27">
-        <v>75.22049720619897</v>
+        <v>240.5272025289128</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>25.22216373226111</v>
+        <v>80.65110853517483</v>
       </c>
       <c r="C28">
-        <v>1.997249874743783</v>
+        <v>6.386463038212333</v>
       </c>
       <c r="D28">
-        <v>10.00285990068549</v>
+        <v>31.98542948480064</v>
       </c>
       <c r="E28">
-        <v>7.542567559968218</v>
+        <v>24.11832867989837</v>
       </c>
       <c r="F28">
-        <v>8.836177823079309</v>
+        <v>28.2548136714275</v>
       </c>
       <c r="G28">
-        <v>24.4395919519263</v>
+        <v>78.14873473955878</v>
       </c>
       <c r="H28">
-        <v>1.607955194243229</v>
+        <v>5.141643289101865</v>
       </c>
       <c r="I28">
-        <v>79.64856603690744</v>
+        <v>254.6865214381743</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>25.1371452028265</v>
+        <v>80.37925086595513</v>
       </c>
       <c r="C29">
-        <v>1.840602825744271</v>
+        <v>5.885563976391759</v>
       </c>
       <c r="D29">
-        <v>8.463958377503106</v>
+        <v>27.06459417944669</v>
       </c>
       <c r="E29">
-        <v>5.07172646273725</v>
+        <v>16.21749687096614</v>
       </c>
       <c r="F29">
-        <v>8.087953088060495</v>
+        <v>25.86226896537922</v>
       </c>
       <c r="G29">
-        <v>18.29396356635419</v>
+        <v>58.49729851850015</v>
       </c>
       <c r="H29">
-        <v>0.9787553356263129</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="I29">
-        <v>67.87410485885212</v>
+        <v>217.0361692917446</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>26.59662995812027</v>
+        <v>85.04614085422645</v>
       </c>
       <c r="C30">
-        <v>1.918926350244027</v>
+        <v>6.136013507302046</v>
       </c>
       <c r="D30">
-        <v>8.207474790306044</v>
+        <v>26.2444549618877</v>
       </c>
       <c r="E30">
-        <v>5.982036340664449</v>
+        <v>19.12832964267803</v>
       </c>
       <c r="F30">
-        <v>10.08321904811066</v>
+        <v>32.24238818150801</v>
       </c>
       <c r="G30">
-        <v>15.14968857838706</v>
+        <v>48.44307533563295</v>
       </c>
       <c r="H30">
-        <v>1.468133003439469</v>
+        <v>4.694543872658226</v>
       </c>
       <c r="I30">
-        <v>69.40610806927199</v>
+        <v>221.9349463558934</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>25.64725637943402</v>
+        <v>82.01039688127325</v>
       </c>
       <c r="C31">
-        <v>1.527308727745246</v>
+        <v>4.883765852750609</v>
       </c>
       <c r="D31">
-        <v>11.67000321746641</v>
+        <v>37.31633439893407</v>
       </c>
       <c r="E31">
-        <v>5.461859267563191</v>
+        <v>17.46499663027124</v>
       </c>
       <c r="F31">
-        <v>9.54877280881151</v>
+        <v>30.5334276771878</v>
       </c>
       <c r="G31">
-        <v>14.43508062657635</v>
+        <v>46.15802461225403</v>
       </c>
       <c r="H31">
-        <v>1.677866289645108</v>
+        <v>5.365192997323686</v>
       </c>
       <c r="I31">
-        <v>69.96814731724184</v>
+        <v>223.7321390499947</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>27.16342015435085</v>
+        <v>86.85852531569107</v>
       </c>
       <c r="C32">
-        <v>1.762279301244514</v>
+        <v>5.63511444548147</v>
       </c>
       <c r="D32">
-        <v>11.54176142386787</v>
+        <v>36.90626479015456</v>
       </c>
       <c r="E32">
-        <v>5.721947804113821</v>
+        <v>18.29666313647462</v>
       </c>
       <c r="F32">
-        <v>9.299364563805238</v>
+        <v>29.73591277517169</v>
       </c>
       <c r="G32">
-        <v>14.29215903621421</v>
+        <v>45.70101446757823</v>
       </c>
       <c r="H32">
-        <v>0.9787553356263129</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="I32">
-        <v>70.75968761922283</v>
+        <v>226.2631908456571</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>31.57021393004365</v>
+        <v>100.9498145035784</v>
       </c>
       <c r="C33">
-        <v>1.605632252245002</v>
+        <v>5.134215383660896</v>
       </c>
       <c r="D33">
-        <v>14.4913226766341</v>
+        <v>46.33786579208296</v>
       </c>
       <c r="E33">
-        <v>5.461859267563191</v>
+        <v>17.46499663027124</v>
       </c>
       <c r="F33">
-        <v>9.263734814518628</v>
+        <v>29.62198207488368</v>
       </c>
       <c r="G33">
-        <v>11.14788404824709</v>
+        <v>35.64679128471104</v>
       </c>
       <c r="H33">
-        <v>1.258399717233831</v>
+        <v>4.023894747992765</v>
       </c>
       <c r="I33">
-        <v>74.7990467064855</v>
+        <v>239.179560417181</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>35.75029162724424</v>
+        <v>114.3161499068798</v>
       </c>
       <c r="C34">
-        <v>1.527308727745246</v>
+        <v>4.883765852750609</v>
       </c>
       <c r="D34">
-        <v>10.00285990068549</v>
+        <v>31.98542948480064</v>
       </c>
       <c r="E34">
-        <v>9.233143047547303</v>
+        <v>29.52416097022043</v>
       </c>
       <c r="F34">
-        <v>6.270835874443378</v>
+        <v>20.05180325069049</v>
       </c>
       <c r="G34">
-        <v>6.14562838557211</v>
+        <v>19.65143622105864</v>
       </c>
       <c r="H34">
-        <v>2.027421766654506</v>
+        <v>6.482941538432788</v>
       </c>
       <c r="I34">
-        <v>70.95748932989227</v>
+        <v>226.8956872248334</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>36.03368672535953</v>
+        <v>115.2223421376122</v>
       </c>
       <c r="C35">
-        <v>1.488146965495368</v>
+        <v>4.758541087295464</v>
       </c>
       <c r="D35">
-        <v>8.848683758298701</v>
+        <v>28.29480300578518</v>
       </c>
       <c r="E35">
-        <v>9.233143047547303</v>
+        <v>29.52416097022043</v>
       </c>
       <c r="F35">
-        <v>5.095054147985246</v>
+        <v>16.29209014118603</v>
       </c>
       <c r="G35">
-        <v>1.286294313259279</v>
+        <v>4.113091302082044</v>
       </c>
       <c r="H35">
-        <v>0.838933144822554</v>
+        <v>2.682596498661843</v>
       </c>
       <c r="I35">
-        <v>62.82394210276797</v>
+        <v>200.8876251428432</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>27.07840162491626</v>
+        <v>86.5866676464714</v>
       </c>
       <c r="C36">
-        <v>0.7049117204978058</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="D36">
-        <v>6.283847886328063</v>
+        <v>20.09341083019527</v>
       </c>
       <c r="E36">
-        <v>8.452877437895413</v>
+        <v>27.02916145161024</v>
       </c>
       <c r="F36">
-        <v>3.456085680801181</v>
+        <v>11.05127792793737</v>
       </c>
       <c r="G36">
-        <v>2.572588626518558</v>
+        <v>8.226182604164087</v>
       </c>
       <c r="H36">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I36">
-        <v>48.75844626316292</v>
+        <v>155.9113953632364</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>22.16149667261593</v>
+        <v>70.86423244326599</v>
       </c>
       <c r="C37">
-        <v>1.057367580746709</v>
+        <v>3.381068667288883</v>
       </c>
       <c r="D37">
-        <v>4.231979188751553</v>
+        <v>13.53229708972335</v>
       </c>
       <c r="E37">
-        <v>9.493231584097931</v>
+        <v>30.35582747642382</v>
       </c>
       <c r="F37">
-        <v>2.102155207909997</v>
+        <v>6.721911316992835</v>
       </c>
       <c r="G37">
-        <v>2.429667036156415</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="H37">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I37">
-        <v>41.68563055648417</v>
+        <v>133.2951585778486</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>16.21019961219477</v>
+        <v>51.83419559788761</v>
       </c>
       <c r="C38">
-        <v>0.5874264337481715</v>
+        <v>1.878371481827158</v>
       </c>
       <c r="D38">
-        <v>3.590770220758894</v>
+        <v>11.48194904582587</v>
       </c>
       <c r="E38">
-        <v>7.152434755142275</v>
+        <v>22.87082892059329</v>
       </c>
       <c r="F38">
-        <v>1.888376712190336</v>
+        <v>6.03832711526475</v>
       </c>
       <c r="G38">
-        <v>1.286294313259279</v>
+        <v>4.113091302082044</v>
       </c>
       <c r="H38">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I38">
-        <v>30.85532423809749</v>
+        <v>98.66386287992435</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>11.39248294423479</v>
+        <v>36.42892767543853</v>
       </c>
       <c r="C39">
-        <v>0.7049117204978058</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="D39">
-        <v>1.795385110379447</v>
+        <v>5.740974522912933</v>
       </c>
       <c r="E39">
-        <v>3.641239511708794</v>
+        <v>11.64333108684749</v>
       </c>
       <c r="F39">
-        <v>1.033262729311693</v>
+        <v>3.30399030835241</v>
       </c>
       <c r="G39">
-        <v>2.715510216880701</v>
+        <v>8.683192748839868</v>
       </c>
       <c r="H39">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I39">
-        <v>21.42261442381699</v>
+        <v>68.50156153702746</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>6.787312599861276</v>
+        <v>21.70330392603861</v>
       </c>
       <c r="C40">
-        <v>0.8223970072474399</v>
+        <v>2.62972007455802</v>
       </c>
       <c r="D40">
-        <v>1.538901523182383</v>
+        <v>4.920835305353942</v>
       </c>
       <c r="E40">
-        <v>1.560531219303769</v>
+        <v>4.989999037220354</v>
       </c>
       <c r="F40">
-        <v>0.926373481451863</v>
+        <v>2.962198207488368</v>
       </c>
       <c r="G40">
-        <v>1.715059084345705</v>
+        <v>5.484121736109391</v>
       </c>
       <c r="H40">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I40">
-        <v>13.49039710619619</v>
+        <v>43.13727770321233</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,25 +1563,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>5.001923481734925</v>
+        <v>15.99429287242512</v>
       </c>
       <c r="C41">
-        <v>1.292338154245977</v>
+        <v>4.132417260019746</v>
       </c>
       <c r="D41">
-        <v>0.1282417935985319</v>
+        <v>0.4100696087794953</v>
       </c>
       <c r="E41">
-        <v>0.7802656096518843</v>
+        <v>2.494999518610177</v>
       </c>
       <c r="F41">
-        <v>1.460819720751014</v>
+        <v>4.671158711808581</v>
       </c>
       <c r="G41">
-        <v>2.286745445794274</v>
+        <v>7.312162314812519</v>
       </c>
       <c r="I41">
-        <v>10.95033420577661</v>
+        <v>35.01510028645563</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,28 +1589,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>2.918969510587519</v>
+        <v>9.333779976542708</v>
       </c>
       <c r="C42">
-        <v>0.9398822939970746</v>
+        <v>3.005394370923451</v>
       </c>
       <c r="D42">
-        <v>0.1282417935985319</v>
+        <v>0.4100696087794953</v>
       </c>
       <c r="E42">
-        <v>0.5201770731012563</v>
+        <v>1.663333012406784</v>
       </c>
       <c r="F42">
-        <v>1.140151977171524</v>
+        <v>3.645782409216454</v>
       </c>
       <c r="G42">
-        <v>2.143823855432132</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="H42">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I42">
-        <v>7.861157599289916</v>
+        <v>25.13706125622745</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1618,25 +1618,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>2.238821275110817</v>
+        <v>7.158918622785179</v>
       </c>
       <c r="C43">
-        <v>1.331499916495855</v>
+        <v>4.257642025474889</v>
       </c>
       <c r="D43">
-        <v>1.025934348788256</v>
+        <v>3.280556870235962</v>
       </c>
       <c r="E43">
-        <v>0.1300442682753141</v>
+        <v>0.4158332531016961</v>
       </c>
       <c r="F43">
-        <v>0.7482247350188121</v>
+        <v>2.392544706048298</v>
       </c>
       <c r="G43">
-        <v>2.858431807242844</v>
+        <v>9.140202893515649</v>
       </c>
       <c r="I43">
-        <v>8.332956350931898</v>
+        <v>26.64569837116167</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1644,28 +1644,28 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>2.777271961529875</v>
+        <v>8.880683861176552</v>
       </c>
       <c r="C44">
-        <v>0.7049117204978058</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="D44">
-        <v>0.7694507615911914</v>
+        <v>2.460417652676971</v>
       </c>
       <c r="E44">
-        <v>1.170398414477827</v>
+        <v>3.742499277915265</v>
       </c>
       <c r="F44">
-        <v>0.926373481451863</v>
+        <v>2.962198207488368</v>
       </c>
       <c r="G44">
-        <v>2.429667036156415</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="H44">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I44">
-        <v>8.847984471106857</v>
+        <v>28.29256694515987</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1673,28 +1673,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>4.095059167765986</v>
+        <v>13.09447773408175</v>
       </c>
       <c r="C45">
-        <v>0.1958088112493905</v>
+        <v>0.626123827275719</v>
       </c>
       <c r="D45">
-        <v>1.667143316780914</v>
+        <v>5.330904914133439</v>
       </c>
       <c r="E45">
-        <v>0.6502213413765704</v>
+        <v>2.079166265508481</v>
       </c>
       <c r="F45">
-        <v>1.710227965757285</v>
+        <v>5.46867361382468</v>
       </c>
       <c r="G45">
-        <v>4.144726120502122</v>
+        <v>13.25329419559769</v>
       </c>
       <c r="H45">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I45">
-        <v>12.53309781883415</v>
+        <v>40.07619025864358</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1702,28 +1702,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>10.85403225781573</v>
+        <v>34.70716243704715</v>
       </c>
       <c r="C46">
-        <v>0.3916176224987811</v>
+        <v>1.252247654551438</v>
       </c>
       <c r="D46">
-        <v>3.334286633561828</v>
+        <v>10.66180982826688</v>
       </c>
       <c r="E46">
-        <v>4.681593657911308</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="F46">
-        <v>3.669864176520842</v>
+        <v>11.73486212966546</v>
       </c>
       <c r="G46">
-        <v>6.431471566296396</v>
+        <v>20.56545651041021</v>
       </c>
       <c r="H46">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I46">
-        <v>29.50268810540865</v>
+        <v>94.33863508804583</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1731,28 +1731,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>17.81138191654617</v>
+        <v>56.95418170152513</v>
       </c>
       <c r="C47">
-        <v>0.8615587694973182</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="D47">
-        <v>6.668573267123657</v>
+        <v>21.32361965653375</v>
       </c>
       <c r="E47">
-        <v>11.44389560822764</v>
+        <v>36.59332627294925</v>
       </c>
       <c r="F47">
-        <v>6.484614370163039</v>
+        <v>20.73538745241857</v>
       </c>
       <c r="G47">
-        <v>8.575295421728528</v>
+        <v>27.42060868054695</v>
       </c>
       <c r="H47">
-        <v>0.9088442402244336</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="I47">
-        <v>52.75416359351079</v>
+        <v>168.6882148108705</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1760,28 +1760,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>29.94069211588074</v>
+        <v>95.73920917686769</v>
       </c>
       <c r="C48">
-        <v>0.8615587694973182</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="D48">
-        <v>10.90055245587521</v>
+        <v>34.85591674625709</v>
       </c>
       <c r="E48">
-        <v>14.43491377855987</v>
+        <v>46.15749109428828</v>
       </c>
       <c r="F48">
-        <v>8.159212586633716</v>
+        <v>26.09013036595524</v>
       </c>
       <c r="G48">
-        <v>16.2930613012842</v>
+        <v>52.0991564930392</v>
       </c>
       <c r="H48">
-        <v>1.817688480448867</v>
+        <v>5.812292413767326</v>
       </c>
       <c r="I48">
-        <v>82.40767948817992</v>
+        <v>263.509141130188</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1789,28 +1789,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>34.43250442100813</v>
+        <v>110.1023560339746</v>
       </c>
       <c r="C49">
-        <v>0.7832352449975621</v>
+        <v>2.504495309102876</v>
       </c>
       <c r="D49">
-        <v>10.00285990068549</v>
+        <v>31.98542948480064</v>
       </c>
       <c r="E49">
-        <v>8.062744633069473</v>
+        <v>25.78166169230516</v>
       </c>
       <c r="F49">
-        <v>6.769652364455921</v>
+        <v>21.64683305472269</v>
       </c>
       <c r="G49">
-        <v>9.43282496390138</v>
+        <v>30.16266954860166</v>
       </c>
       <c r="H49">
-        <v>0.9787553356263129</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="I49">
-        <v>70.46257686374426</v>
+        <v>225.3131410386131</v>
       </c>
     </row>
   </sheetData>
